--- a/raw/faculty/1. BTech II Sem _Even 2025.xlsx
+++ b/raw/faculty/1. BTech II Sem _Even 2025.xlsx
@@ -9,7 +9,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TT general\Time Table Even Sem 2025 _62\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7C3917D9-968A-4BD4-8F99-2524C656B039}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:10001_{64CC159A-B700-40E6-BB3A-730956C58685}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="576">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="576">
   <si>
     <t>9-9.50</t>
   </si>
@@ -591,9 +591,6 @@
     <t>LB9,B10(CI121)- FF1/MEE</t>
   </si>
   <si>
-    <t>LA7,A8(MA211)- G1/HPT</t>
-  </si>
-  <si>
     <t xml:space="preserve">LA1,A2(PH211)-G3/RKG </t>
   </si>
   <si>
@@ -633,9 +630,6 @@
     <t xml:space="preserve">LA3,A4(PH211)-G3/MKC </t>
   </si>
   <si>
-    <t>LA7,A8(MA211)-G1 /HPT</t>
-  </si>
-  <si>
     <t xml:space="preserve">LA1,A2(PH211)-G2/RKG </t>
   </si>
   <si>
@@ -654,9 +648,6 @@
     <t>LB1,B2(CI121)-G3/PSO</t>
   </si>
   <si>
-    <t>LA7,A8(MA211)- FF1/HPT</t>
-  </si>
-  <si>
     <t xml:space="preserve">LA1,A2(PH211)-FF2/RKG </t>
   </si>
   <si>
@@ -957,36 +948,21 @@
     <t>TA3(B11HS111)-TS10/VSE</t>
   </si>
   <si>
-    <t>TC2(MA212)-TS6/AKK</t>
-  </si>
-  <si>
     <t>TB1(CI121)-TS7/APJ</t>
   </si>
   <si>
     <t>TB2(CI121)-TS8/AJS</t>
   </si>
   <si>
-    <t>TA1(MA211)-TS6/AKK</t>
-  </si>
-  <si>
     <t>TA10(MA211)-TS7/BPC</t>
   </si>
   <si>
     <t>TB14(MA211)-TS7/AN</t>
   </si>
   <si>
-    <t>TA17(MA211)-TS8/MPA</t>
-  </si>
-  <si>
     <t>TB11(CI121)-TS6/SHP</t>
   </si>
   <si>
-    <t>TB9(MA211)-TS8/AKK</t>
-  </si>
-  <si>
-    <t>TA5(MA211)-TS10/YG</t>
-  </si>
-  <si>
     <t>TB5(CI121)-TS6/SMT</t>
   </si>
   <si>
@@ -1032,9 +1008,6 @@
     <t>TA4(CI121)-TS7/MEE</t>
   </si>
   <si>
-    <t>TC3(MA212)-TS6/AKK</t>
-  </si>
-  <si>
     <t>TA7(CI121)-TS7/SHP</t>
   </si>
   <si>
@@ -1077,9 +1050,6 @@
     <t>TB4(CI121)-TS6/TAJ</t>
   </si>
   <si>
-    <t>TA15(MA211)-TS6/YG</t>
-  </si>
-  <si>
     <t>TA16(MA211)-TS7/AN</t>
   </si>
   <si>
@@ -1095,9 +1065,6 @@
     <t>TC2(B11CI121)-TS6/SJA</t>
   </si>
   <si>
-    <t>TB8(MA211)-TS7/AKK</t>
-  </si>
-  <si>
     <t>TA15(CI121)-TS6/NEH</t>
   </si>
   <si>
@@ -1750,6 +1717,39 @@
   </si>
   <si>
     <t>LB3,B4(PH211)-FF7/VRT</t>
+  </si>
+  <si>
+    <t>LA7,A8(MA211)- G1/MPA</t>
+  </si>
+  <si>
+    <t>LA7,A8(MA211)-G1 /MPA</t>
+  </si>
+  <si>
+    <t>LA7,A8(MA211)- FF2/MPA</t>
+  </si>
+  <si>
+    <t>TA1(MA211)-TS6/SG</t>
+  </si>
+  <si>
+    <t>TA17(MA211)-TS8/RSC</t>
+  </si>
+  <si>
+    <t>TB9(MA211)-TS8/SP</t>
+  </si>
+  <si>
+    <t>TA5(MA211)-TS10/HA</t>
+  </si>
+  <si>
+    <t>TB8(MA211)-TS7/AN</t>
+  </si>
+  <si>
+    <t>TA15(MA211)-TS6/AT</t>
+  </si>
+  <si>
+    <t>TC2(MA212)-TS6/NS</t>
+  </si>
+  <si>
+    <t>TC3(MA212)-TS6/RSH</t>
   </si>
 </sst>
 </file>
@@ -1893,7 +1893,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1924,6 +1924,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="52">
     <border>
@@ -2602,7 +2614,7 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="245">
+  <cellXfs count="268">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2795,9 +2807,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2933,9 +2942,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -3048,15 +3054,129 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3066,6 +3186,36 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -3075,202 +3225,142 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3297,18 +3387,6 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -3323,6 +3401,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -3677,7 +3758,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B63" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E179" sqref="E179"/>
+      <selection pane="bottomRight" activeCell="H68" sqref="H68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -3698,17 +3779,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="221" t="s">
+      <c r="A1" s="246" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="222"/>
-      <c r="C1" s="222"/>
-      <c r="D1" s="222"/>
-      <c r="E1" s="222"/>
-      <c r="F1" s="222"/>
-      <c r="G1" s="222"/>
-      <c r="H1" s="222"/>
-      <c r="I1" s="223"/>
+      <c r="B1" s="247"/>
+      <c r="C1" s="247"/>
+      <c r="D1" s="247"/>
+      <c r="E1" s="247"/>
+      <c r="F1" s="247"/>
+      <c r="G1" s="247"/>
+      <c r="H1" s="247"/>
+      <c r="I1" s="248"/>
     </row>
     <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="36"/>
@@ -3738,11 +3819,11 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="183" t="s">
+      <c r="A3" s="211" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="108" t="s">
-        <v>575</v>
+      <c r="B3" s="107" t="s">
+        <v>564</v>
       </c>
       <c r="C3" s="40" t="s">
         <v>117</v>
@@ -3750,7 +3831,7 @@
       <c r="D3" s="40" t="s">
         <v>121</v>
       </c>
-      <c r="E3" s="224" t="s">
+      <c r="E3" s="249" t="s">
         <v>9</v>
       </c>
       <c r="F3" s="40" t="s">
@@ -3760,375 +3841,375 @@
         <v>130</v>
       </c>
       <c r="H3" s="40" t="s">
-        <v>234</v>
-      </c>
-      <c r="I3" s="75" t="s">
-        <v>222</v>
+        <v>231</v>
+      </c>
+      <c r="I3" s="74" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="184"/>
+      <c r="A4" s="212"/>
       <c r="B4" s="53" t="s">
-        <v>509</v>
+        <v>498</v>
       </c>
       <c r="C4" s="42" t="s">
         <v>118</v>
       </c>
-      <c r="D4" s="87" t="s">
+      <c r="D4" s="86" t="s">
         <v>122</v>
       </c>
-      <c r="E4" s="167"/>
-      <c r="F4" s="87" t="s">
+      <c r="E4" s="198"/>
+      <c r="F4" s="86" t="s">
         <v>127</v>
       </c>
       <c r="G4" s="42" t="s">
-        <v>236</v>
-      </c>
-      <c r="H4" s="87" t="s">
+        <v>233</v>
+      </c>
+      <c r="H4" s="158" t="s">
         <v>141</v>
       </c>
-      <c r="I4" s="89" t="s">
+      <c r="I4" s="88" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="184"/>
-      <c r="B5" s="109" t="s">
-        <v>510</v>
-      </c>
-      <c r="C5" s="87" t="s">
+      <c r="A5" s="212"/>
+      <c r="B5" s="108" t="s">
+        <v>499</v>
+      </c>
+      <c r="C5" s="86" t="s">
         <v>119</v>
       </c>
-      <c r="D5" s="87" t="s">
+      <c r="D5" s="158" t="s">
         <v>123</v>
       </c>
-      <c r="E5" s="167"/>
-      <c r="F5" s="86" t="s">
+      <c r="E5" s="198"/>
+      <c r="F5" s="85" t="s">
         <v>128</v>
       </c>
-      <c r="G5" s="152" t="s">
-        <v>226</v>
-      </c>
-      <c r="H5" s="119" t="s">
+      <c r="G5" s="158" t="s">
+        <v>223</v>
+      </c>
+      <c r="H5" s="117" t="s">
         <v>142</v>
       </c>
-      <c r="I5" s="76"/>
+      <c r="I5" s="75"/>
     </row>
     <row r="6" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="184"/>
+      <c r="A6" s="212"/>
       <c r="B6" s="53" t="s">
-        <v>390</v>
-      </c>
-      <c r="C6" s="121" t="s">
+        <v>379</v>
+      </c>
+      <c r="C6" s="119" t="s">
         <v>169</v>
       </c>
-      <c r="D6" s="87" t="s">
+      <c r="D6" s="86" t="s">
         <v>124</v>
       </c>
-      <c r="E6" s="167"/>
-      <c r="F6" s="87" t="s">
+      <c r="E6" s="198"/>
+      <c r="F6" s="86" t="s">
         <v>129</v>
       </c>
-      <c r="G6" s="87" t="s">
+      <c r="G6" s="86" t="s">
         <v>133</v>
       </c>
-      <c r="H6" s="87" t="s">
+      <c r="H6" s="158" t="s">
         <v>143</v>
       </c>
-      <c r="I6" s="77" t="s">
-        <v>303</v>
+      <c r="I6" s="76" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="184"/>
-      <c r="B7" s="66" t="s">
-        <v>389</v>
-      </c>
-      <c r="C7" s="86" t="s">
+      <c r="A7" s="212"/>
+      <c r="B7" s="65" t="s">
+        <v>378</v>
+      </c>
+      <c r="C7" s="85" t="s">
         <v>120</v>
       </c>
-      <c r="D7" s="87" t="s">
+      <c r="D7" s="86" t="s">
         <v>125</v>
       </c>
-      <c r="E7" s="167"/>
-      <c r="F7" s="87" t="s">
+      <c r="E7" s="198"/>
+      <c r="F7" s="86" t="s">
         <v>140</v>
       </c>
-      <c r="G7" s="86"/>
-      <c r="H7" s="119"/>
-      <c r="I7" s="77" t="s">
-        <v>304</v>
+      <c r="G7" s="85"/>
+      <c r="H7" s="117"/>
+      <c r="I7" s="76" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="184"/>
-      <c r="B8" s="110"/>
+      <c r="A8" s="212"/>
+      <c r="B8" s="109"/>
       <c r="C8" s="64" t="s">
         <v>104</v>
       </c>
-      <c r="D8" s="87" t="s">
-        <v>408</v>
-      </c>
-      <c r="E8" s="167"/>
-      <c r="F8" s="148" t="s">
-        <v>571</v>
-      </c>
-      <c r="G8" s="86"/>
-      <c r="H8" s="86" t="s">
-        <v>301</v>
-      </c>
-      <c r="I8" s="77" t="s">
-        <v>305</v>
+      <c r="D8" s="86" t="s">
+        <v>397</v>
+      </c>
+      <c r="E8" s="198"/>
+      <c r="F8" s="178" t="s">
+        <v>560</v>
+      </c>
+      <c r="G8" s="85"/>
+      <c r="H8" s="180" t="s">
+        <v>298</v>
+      </c>
+      <c r="I8" s="76" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="184"/>
-      <c r="B9" s="53" t="s">
+      <c r="A9" s="212"/>
+      <c r="B9" s="179" t="s">
+        <v>290</v>
+      </c>
+      <c r="C9" s="85" t="s">
+        <v>99</v>
+      </c>
+      <c r="E9" s="198"/>
+      <c r="F9" s="85" t="s">
+        <v>103</v>
+      </c>
+      <c r="G9" s="85" t="s">
+        <v>115</v>
+      </c>
+      <c r="H9" s="180" t="s">
+        <v>299</v>
+      </c>
+      <c r="I9" s="76" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="212"/>
+      <c r="B10" s="179" t="s">
+        <v>291</v>
+      </c>
+      <c r="C10" s="181" t="s">
+        <v>502</v>
+      </c>
+      <c r="D10" s="85" t="s">
         <v>293</v>
       </c>
-      <c r="C9" s="86" t="s">
-        <v>99</v>
-      </c>
-      <c r="E9" s="167"/>
-      <c r="F9" s="86" t="s">
-        <v>103</v>
-      </c>
-      <c r="G9" s="86" t="s">
-        <v>115</v>
-      </c>
-      <c r="H9" s="86" t="s">
-        <v>302</v>
-      </c>
-      <c r="I9" s="77" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="184"/>
-      <c r="B10" s="53" t="s">
+      <c r="E10" s="198"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="180" t="s">
+        <v>297</v>
+      </c>
+      <c r="H10" s="85" t="s">
+        <v>229</v>
+      </c>
+      <c r="I10" s="75" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="212"/>
+      <c r="B11" s="53"/>
+      <c r="C11" s="85" t="s">
+        <v>70</v>
+      </c>
+      <c r="D11" s="85" t="s">
         <v>294</v>
       </c>
-      <c r="C10" s="46" t="s">
-        <v>513</v>
-      </c>
-      <c r="D10" s="86" t="s">
-        <v>296</v>
-      </c>
-      <c r="E10" s="167"/>
-      <c r="F10" s="44"/>
-      <c r="G10" s="86" t="s">
-        <v>300</v>
-      </c>
-      <c r="H10" s="86" t="s">
-        <v>232</v>
-      </c>
-      <c r="I10" s="76" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="184"/>
-      <c r="B11" s="53"/>
-      <c r="C11" s="86" t="s">
-        <v>70</v>
-      </c>
-      <c r="D11" s="86" t="s">
-        <v>297</v>
-      </c>
-      <c r="E11" s="167"/>
-      <c r="F11" s="86"/>
-      <c r="G11" s="86"/>
-      <c r="H11" s="86" t="s">
+      <c r="E11" s="198"/>
+      <c r="F11" s="85"/>
+      <c r="G11" s="85"/>
+      <c r="H11" s="85" t="s">
         <v>72</v>
       </c>
-      <c r="I11" s="76"/>
+      <c r="I11" s="75"/>
     </row>
     <row r="12" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="184"/>
-      <c r="B12" s="66"/>
+      <c r="A12" s="212"/>
+      <c r="B12" s="65"/>
       <c r="C12" s="64" t="s">
         <v>71</v>
       </c>
-      <c r="D12" s="86" t="s">
-        <v>298</v>
-      </c>
-      <c r="E12" s="167"/>
-      <c r="F12" s="86"/>
-      <c r="G12" s="192" t="s">
-        <v>287</v>
-      </c>
-      <c r="H12" s="192"/>
-      <c r="I12" s="76"/>
+      <c r="D12" s="85" t="s">
+        <v>295</v>
+      </c>
+      <c r="E12" s="198"/>
+      <c r="F12" s="85"/>
+      <c r="G12" s="234" t="s">
+        <v>284</v>
+      </c>
+      <c r="H12" s="234"/>
+      <c r="I12" s="75"/>
     </row>
     <row r="13" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="184"/>
-      <c r="B13" s="225" t="s">
-        <v>448</v>
-      </c>
-      <c r="C13" s="226"/>
-      <c r="D13" s="87" t="s">
-        <v>299</v>
-      </c>
-      <c r="E13" s="167"/>
-      <c r="F13" s="86"/>
-      <c r="G13" s="192" t="s">
+      <c r="A13" s="212"/>
+      <c r="B13" s="250" t="s">
+        <v>437</v>
+      </c>
+      <c r="C13" s="251"/>
+      <c r="D13" s="182" t="s">
+        <v>296</v>
+      </c>
+      <c r="E13" s="198"/>
+      <c r="F13" s="85"/>
+      <c r="G13" s="234" t="s">
         <v>97</v>
       </c>
-      <c r="H13" s="192"/>
-      <c r="I13" s="76"/>
+      <c r="H13" s="234"/>
+      <c r="I13" s="75"/>
     </row>
     <row r="14" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="184"/>
-      <c r="B14" s="211" t="s">
-        <v>455</v>
-      </c>
-      <c r="C14" s="174"/>
-      <c r="D14" s="86" t="s">
-        <v>295</v>
-      </c>
-      <c r="E14" s="167"/>
+      <c r="A14" s="212"/>
+      <c r="B14" s="235" t="s">
+        <v>444</v>
+      </c>
+      <c r="C14" s="189"/>
+      <c r="D14" s="267" t="s">
+        <v>292</v>
+      </c>
+      <c r="E14" s="198"/>
       <c r="F14" s="51"/>
-      <c r="G14" s="220" t="s">
-        <v>394</v>
-      </c>
-      <c r="H14" s="220"/>
-      <c r="I14" s="76"/>
+      <c r="G14" s="245" t="s">
+        <v>383</v>
+      </c>
+      <c r="H14" s="245"/>
+      <c r="I14" s="75"/>
     </row>
     <row r="15" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="184"/>
-      <c r="B15" s="78"/>
-      <c r="C15" s="171" t="s">
+      <c r="A15" s="212"/>
+      <c r="B15" s="77"/>
+      <c r="C15" s="202" t="s">
+        <v>256</v>
+      </c>
+      <c r="D15" s="202"/>
+      <c r="E15" s="198"/>
+      <c r="F15" s="243" t="s">
         <v>259</v>
       </c>
-      <c r="D15" s="171"/>
-      <c r="E15" s="167"/>
-      <c r="F15" s="218" t="s">
+      <c r="G15" s="243"/>
+      <c r="H15" s="190" t="s">
+        <v>438</v>
+      </c>
+      <c r="I15" s="242"/>
+    </row>
+    <row r="16" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="212"/>
+      <c r="B16" s="65"/>
+      <c r="C16" s="202" t="s">
+        <v>257</v>
+      </c>
+      <c r="D16" s="202"/>
+      <c r="E16" s="198"/>
+      <c r="F16" s="243" t="s">
+        <v>260</v>
+      </c>
+      <c r="G16" s="243"/>
+      <c r="H16" s="190" t="s">
+        <v>238</v>
+      </c>
+      <c r="I16" s="242"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="212"/>
+      <c r="B17" s="189" t="s">
+        <v>349</v>
+      </c>
+      <c r="C17" s="190"/>
+      <c r="D17" s="77"/>
+      <c r="E17" s="198"/>
+      <c r="F17" s="252" t="s">
+        <v>350</v>
+      </c>
+      <c r="G17" s="252"/>
+      <c r="H17" s="190" t="s">
         <v>262</v>
       </c>
-      <c r="G15" s="218"/>
-      <c r="H15" s="165" t="s">
-        <v>449</v>
-      </c>
-      <c r="I15" s="209"/>
-    </row>
-    <row r="16" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="184"/>
-      <c r="B16" s="66"/>
-      <c r="C16" s="171" t="s">
-        <v>260</v>
-      </c>
-      <c r="D16" s="171"/>
-      <c r="E16" s="167"/>
-      <c r="F16" s="218" t="s">
+      <c r="I17" s="242"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="212"/>
+      <c r="B18" s="189" t="s">
+        <v>258</v>
+      </c>
+      <c r="C18" s="190"/>
+      <c r="D18" s="85"/>
+      <c r="E18" s="198"/>
+      <c r="F18" s="252" t="s">
+        <v>261</v>
+      </c>
+      <c r="G18" s="252"/>
+      <c r="H18" s="190" t="s">
         <v>263</v>
       </c>
-      <c r="G16" s="218"/>
-      <c r="H16" s="165" t="s">
-        <v>241</v>
-      </c>
-      <c r="I16" s="209"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="184"/>
-      <c r="B17" s="174" t="s">
-        <v>360</v>
-      </c>
-      <c r="C17" s="165"/>
-      <c r="D17" s="78"/>
-      <c r="E17" s="167"/>
-      <c r="F17" s="175" t="s">
-        <v>361</v>
-      </c>
-      <c r="G17" s="175"/>
-      <c r="H17" s="165" t="s">
+      <c r="I18" s="242"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="212"/>
+      <c r="B19" s="65"/>
+      <c r="C19" s="85"/>
+      <c r="D19" s="85"/>
+      <c r="E19" s="198"/>
+      <c r="F19" s="77"/>
+      <c r="G19" s="77"/>
+      <c r="H19" s="202" t="s">
+        <v>264</v>
+      </c>
+      <c r="I19" s="239"/>
+    </row>
+    <row r="20" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="212"/>
+      <c r="B20" s="205" t="s">
+        <v>527</v>
+      </c>
+      <c r="C20" s="206"/>
+      <c r="D20" s="207"/>
+      <c r="E20" s="198"/>
+      <c r="F20" s="77"/>
+      <c r="G20" s="77"/>
+      <c r="H20" s="202" t="s">
         <v>265</v>
       </c>
-      <c r="I17" s="209"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="184"/>
-      <c r="B18" s="174" t="s">
-        <v>261</v>
-      </c>
-      <c r="C18" s="165"/>
-      <c r="D18" s="86"/>
-      <c r="E18" s="167"/>
-      <c r="F18" s="175" t="s">
-        <v>264</v>
-      </c>
-      <c r="G18" s="175"/>
-      <c r="H18" s="165" t="s">
-        <v>266</v>
-      </c>
-      <c r="I18" s="209"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="184"/>
-      <c r="B19" s="66"/>
-      <c r="C19" s="86"/>
-      <c r="D19" s="86"/>
-      <c r="E19" s="167"/>
-      <c r="F19" s="78"/>
-      <c r="G19" s="78"/>
-      <c r="H19" s="171" t="s">
-        <v>267</v>
-      </c>
-      <c r="I19" s="215"/>
-    </row>
-    <row r="20" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="184"/>
-      <c r="B20" s="159" t="s">
-        <v>538</v>
-      </c>
-      <c r="C20" s="160"/>
-      <c r="D20" s="161"/>
-      <c r="E20" s="167"/>
-      <c r="F20" s="78"/>
-      <c r="G20" s="78"/>
-      <c r="H20" s="171" t="s">
-        <v>268</v>
-      </c>
-      <c r="I20" s="215"/>
+      <c r="I20" s="239"/>
     </row>
     <row r="21" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="213"/>
-      <c r="B21" s="162" t="s">
+      <c r="A21" s="237"/>
+      <c r="B21" s="191" t="s">
         <v>61</v>
       </c>
-      <c r="C21" s="162"/>
-      <c r="D21" s="162"/>
-      <c r="E21" s="167"/>
-      <c r="F21" s="159" t="s">
-        <v>540</v>
-      </c>
-      <c r="G21" s="160"/>
-      <c r="H21" s="161"/>
-      <c r="I21" s="125"/>
+      <c r="C21" s="191"/>
+      <c r="D21" s="191"/>
+      <c r="E21" s="198"/>
+      <c r="F21" s="205" t="s">
+        <v>529</v>
+      </c>
+      <c r="G21" s="206"/>
+      <c r="H21" s="207"/>
+      <c r="I21" s="123"/>
     </row>
     <row r="22" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="214"/>
-      <c r="B22" s="212" t="s">
-        <v>539</v>
-      </c>
-      <c r="C22" s="212"/>
-      <c r="D22" s="212"/>
-      <c r="E22" s="167"/>
-      <c r="F22" s="162" t="s">
+      <c r="A22" s="238"/>
+      <c r="B22" s="236" t="s">
+        <v>528</v>
+      </c>
+      <c r="C22" s="236"/>
+      <c r="D22" s="236"/>
+      <c r="E22" s="198"/>
+      <c r="F22" s="191" t="s">
         <v>64</v>
       </c>
-      <c r="G22" s="162"/>
-      <c r="H22" s="162"/>
-      <c r="I22" s="125"/>
+      <c r="G22" s="191"/>
+      <c r="H22" s="191"/>
+      <c r="I22" s="123"/>
     </row>
     <row r="23" spans="1:9" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="185"/>
-      <c r="E23" s="167"/>
-      <c r="F23" s="156" t="s">
-        <v>541</v>
-      </c>
-      <c r="G23" s="157"/>
-      <c r="H23" s="158"/>
-      <c r="I23" s="126"/>
+      <c r="A23" s="213"/>
+      <c r="E23" s="198"/>
+      <c r="F23" s="192" t="s">
+        <v>530</v>
+      </c>
+      <c r="G23" s="193"/>
+      <c r="H23" s="194"/>
+      <c r="I23" s="124"/>
     </row>
     <row r="24" spans="1:9" s="44" customFormat="1" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="27"/>
@@ -4142,100 +4223,100 @@
       <c r="I24" s="5"/>
     </row>
     <row r="25" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="183" t="s">
+      <c r="A25" s="211" t="s">
         <v>10</v>
       </c>
-      <c r="B25" s="66" t="s">
+      <c r="B25" s="65" t="s">
         <v>136</v>
       </c>
-      <c r="C25" s="87" t="s">
+      <c r="C25" s="86" t="s">
         <v>132</v>
       </c>
-      <c r="D25" s="87" t="s">
+      <c r="D25" s="86" t="s">
         <v>145</v>
       </c>
-      <c r="E25" s="166" t="s">
+      <c r="E25" s="197" t="s">
         <v>9</v>
       </c>
-      <c r="F25" s="87" t="s">
+      <c r="F25" s="86" t="s">
         <v>126</v>
       </c>
-      <c r="G25" s="87" t="s">
+      <c r="G25" s="158" t="s">
         <v>152</v>
       </c>
-      <c r="H25" s="87" t="s">
+      <c r="H25" s="86" t="s">
         <v>157</v>
       </c>
-      <c r="I25" s="89" t="s">
+      <c r="I25" s="88" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="184"/>
+      <c r="A26" s="212"/>
       <c r="B26" s="53" t="s">
-        <v>409</v>
-      </c>
-      <c r="C26" s="119" t="s">
+        <v>398</v>
+      </c>
+      <c r="C26" s="158" t="s">
         <v>137</v>
       </c>
-      <c r="D26" s="87" t="s">
+      <c r="D26" s="86" t="s">
         <v>146</v>
       </c>
-      <c r="E26" s="167"/>
-      <c r="F26" s="87" t="s">
+      <c r="E26" s="198"/>
+      <c r="F26" s="86" t="s">
         <v>149</v>
       </c>
-      <c r="G26" s="87" t="s">
+      <c r="G26" s="86" t="s">
         <v>153</v>
       </c>
-      <c r="H26" s="87" t="s">
+      <c r="H26" s="86" t="s">
         <v>158</v>
       </c>
-      <c r="I26" s="89" t="s">
+      <c r="I26" s="88" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="184"/>
+      <c r="A27" s="212"/>
       <c r="B27" s="53" t="s">
-        <v>410</v>
-      </c>
-      <c r="C27" s="87" t="s">
-        <v>375</v>
-      </c>
-      <c r="D27" s="152" t="s">
-        <v>231</v>
-      </c>
-      <c r="E27" s="167"/>
-      <c r="F27" s="87" t="s">
+        <v>399</v>
+      </c>
+      <c r="C27" s="86" t="s">
+        <v>364</v>
+      </c>
+      <c r="D27" s="158" t="s">
+        <v>228</v>
+      </c>
+      <c r="E27" s="198"/>
+      <c r="F27" s="158" t="s">
         <v>150</v>
       </c>
-      <c r="G27" s="86" t="s">
+      <c r="G27" s="85" t="s">
         <v>154</v>
       </c>
-      <c r="H27" s="86" t="s">
+      <c r="H27" s="85" t="s">
         <v>159</v>
       </c>
-      <c r="I27" s="89" t="s">
+      <c r="I27" s="88" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="184"/>
+      <c r="A28" s="212"/>
       <c r="B28" s="53" t="s">
-        <v>391</v>
-      </c>
-      <c r="C28" s="87" t="s">
+        <v>380</v>
+      </c>
+      <c r="C28" s="86" t="s">
         <v>138</v>
       </c>
-      <c r="D28" s="87" t="s">
+      <c r="D28" s="158" t="s">
         <v>147</v>
       </c>
-      <c r="E28" s="167"/>
-      <c r="F28" s="87" t="s">
+      <c r="E28" s="198"/>
+      <c r="F28" s="86" t="s">
         <v>151</v>
       </c>
-      <c r="G28" s="87" t="s">
+      <c r="G28" s="86" t="s">
         <v>155</v>
       </c>
       <c r="H28" s="51" t="s">
@@ -4244,270 +4325,270 @@
       <c r="I28" s="44"/>
     </row>
     <row r="29" spans="1:9" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="184"/>
+      <c r="A29" s="212"/>
       <c r="B29" s="53" t="s">
-        <v>392</v>
-      </c>
-      <c r="C29" s="87" t="s">
+        <v>381</v>
+      </c>
+      <c r="C29" s="86" t="s">
         <v>139</v>
       </c>
       <c r="D29" s="42" t="s">
         <v>148</v>
       </c>
-      <c r="E29" s="167"/>
-      <c r="F29" s="122"/>
-      <c r="G29" s="87" t="s">
+      <c r="E29" s="198"/>
+      <c r="F29" s="120"/>
+      <c r="G29" s="158" t="s">
         <v>156</v>
       </c>
-      <c r="H29" s="87" t="s">
-        <v>220</v>
-      </c>
-      <c r="I29" s="77" t="s">
-        <v>322</v>
+      <c r="H29" s="86" t="s">
+        <v>217</v>
+      </c>
+      <c r="I29" s="76" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="184"/>
-      <c r="B30" s="153" t="s">
-        <v>307</v>
+      <c r="A30" s="212"/>
+      <c r="B30" s="183" t="s">
+        <v>304</v>
       </c>
       <c r="C30" s="64" t="s">
         <v>105</v>
       </c>
-      <c r="D30" s="154" t="s">
-        <v>393</v>
-      </c>
-      <c r="E30" s="167"/>
+      <c r="D30" s="151" t="s">
+        <v>382</v>
+      </c>
+      <c r="E30" s="198"/>
       <c r="F30" s="56" t="s">
-        <v>537</v>
-      </c>
-      <c r="G30" s="87" t="s">
-        <v>395</v>
-      </c>
-      <c r="H30" s="86" t="s">
+        <v>526</v>
+      </c>
+      <c r="G30" s="86" t="s">
+        <v>384</v>
+      </c>
+      <c r="H30" s="85" t="s">
         <v>77</v>
       </c>
-      <c r="I30" s="76" t="s">
+      <c r="I30" s="75" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="184"/>
-      <c r="B31" s="111" t="s">
-        <v>308</v>
+      <c r="A31" s="212"/>
+      <c r="B31" s="110" t="s">
+        <v>305</v>
       </c>
       <c r="C31" s="64" t="s">
         <v>108</v>
       </c>
-      <c r="D31" s="86" t="s">
-        <v>311</v>
-      </c>
-      <c r="E31" s="167"/>
-      <c r="F31" s="86" t="s">
-        <v>314</v>
-      </c>
-      <c r="G31" s="116"/>
+      <c r="D31" s="267" t="s">
+        <v>574</v>
+      </c>
+      <c r="E31" s="198"/>
+      <c r="F31" s="180" t="s">
+        <v>568</v>
+      </c>
+      <c r="G31" s="114"/>
       <c r="H31" s="46" t="s">
-        <v>318</v>
-      </c>
-      <c r="I31" s="80" t="s">
-        <v>324</v>
+        <v>312</v>
+      </c>
+      <c r="I31" s="79" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="184"/>
-      <c r="B32" s="111" t="s">
+      <c r="A32" s="212"/>
+      <c r="B32" s="110" t="s">
+        <v>306</v>
+      </c>
+      <c r="C32" s="85" t="s">
+        <v>73</v>
+      </c>
+      <c r="D32" s="51" t="s">
+        <v>308</v>
+      </c>
+      <c r="E32" s="198"/>
+      <c r="F32" s="184" t="s">
+        <v>310</v>
+      </c>
+      <c r="G32" s="85" t="s">
+        <v>76</v>
+      </c>
+      <c r="H32" s="121"/>
+      <c r="I32" s="79" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="212"/>
+      <c r="B33" s="110" t="s">
+        <v>503</v>
+      </c>
+      <c r="C33" s="85" t="s">
+        <v>74</v>
+      </c>
+      <c r="D33" s="51" t="s">
         <v>309</v>
       </c>
-      <c r="C32" s="86" t="s">
-        <v>73</v>
-      </c>
-      <c r="D32" s="51" t="s">
-        <v>312</v>
-      </c>
-      <c r="E32" s="167"/>
-      <c r="F32" s="79" t="s">
-        <v>315</v>
-      </c>
-      <c r="G32" s="86" t="s">
-        <v>76</v>
-      </c>
-      <c r="H32" s="123"/>
-      <c r="I32" s="80" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="184"/>
-      <c r="B33" s="111" t="s">
-        <v>514</v>
-      </c>
-      <c r="C33" s="86" t="s">
-        <v>74</v>
-      </c>
-      <c r="D33" s="51" t="s">
-        <v>313</v>
-      </c>
-      <c r="E33" s="167"/>
-      <c r="F33" s="86"/>
+      <c r="E33" s="198"/>
+      <c r="F33" s="85"/>
       <c r="G33" s="51" t="s">
         <v>91</v>
       </c>
-      <c r="H33" s="86" t="s">
-        <v>319</v>
-      </c>
-      <c r="I33" s="77" t="s">
-        <v>321</v>
+      <c r="H33" s="180" t="s">
+        <v>570</v>
+      </c>
+      <c r="I33" s="76" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="184"/>
-      <c r="B34" s="111" t="s">
-        <v>310</v>
-      </c>
-      <c r="C34" s="171" t="s">
-        <v>274</v>
-      </c>
-      <c r="D34" s="171"/>
-      <c r="E34" s="167"/>
-      <c r="F34" s="79"/>
-      <c r="G34" s="65" t="s">
-        <v>316</v>
-      </c>
-      <c r="H34" s="86" t="s">
-        <v>320</v>
-      </c>
-      <c r="I34" s="76"/>
+      <c r="A34" s="212"/>
+      <c r="B34" s="110" t="s">
+        <v>307</v>
+      </c>
+      <c r="C34" s="202" t="s">
+        <v>271</v>
+      </c>
+      <c r="D34" s="202"/>
+      <c r="E34" s="198"/>
+      <c r="F34" s="78"/>
+      <c r="G34" s="185" t="s">
+        <v>311</v>
+      </c>
+      <c r="H34" s="180" t="s">
+        <v>571</v>
+      </c>
+      <c r="I34" s="75"/>
     </row>
     <row r="35" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="184"/>
-      <c r="B35" s="174" t="s">
+      <c r="A35" s="212"/>
+      <c r="B35" s="189" t="s">
         <v>95</v>
       </c>
-      <c r="C35" s="165"/>
+      <c r="C35" s="190"/>
       <c r="D35" s="42"/>
-      <c r="E35" s="167"/>
-      <c r="F35" s="86"/>
-      <c r="G35" s="86" t="s">
-        <v>317</v>
-      </c>
-      <c r="H35" s="216" t="s">
-        <v>454</v>
-      </c>
-      <c r="I35" s="217"/>
+      <c r="E35" s="198"/>
+      <c r="F35" s="85"/>
+      <c r="G35" s="180" t="s">
+        <v>569</v>
+      </c>
+      <c r="H35" s="240" t="s">
+        <v>443</v>
+      </c>
+      <c r="I35" s="241"/>
     </row>
     <row r="36" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="184"/>
-      <c r="B36" s="174" t="s">
-        <v>242</v>
-      </c>
-      <c r="C36" s="165"/>
-      <c r="D36" s="86"/>
-      <c r="E36" s="167"/>
-      <c r="F36" s="165" t="s">
-        <v>362</v>
-      </c>
-      <c r="G36" s="165"/>
-      <c r="H36" s="169" t="s">
+      <c r="A36" s="212"/>
+      <c r="B36" s="189" t="s">
+        <v>239</v>
+      </c>
+      <c r="C36" s="190"/>
+      <c r="D36" s="85"/>
+      <c r="E36" s="198"/>
+      <c r="F36" s="190" t="s">
+        <v>351</v>
+      </c>
+      <c r="G36" s="190"/>
+      <c r="H36" s="200" t="s">
+        <v>252</v>
+      </c>
+      <c r="I36" s="201"/>
+    </row>
+    <row r="37" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="212"/>
+      <c r="B37" s="189" t="s">
+        <v>268</v>
+      </c>
+      <c r="C37" s="190"/>
+      <c r="D37" s="85"/>
+      <c r="E37" s="198"/>
+      <c r="F37" s="190" t="s">
+        <v>352</v>
+      </c>
+      <c r="G37" s="190"/>
+      <c r="H37" s="203" t="s">
+        <v>253</v>
+      </c>
+      <c r="I37" s="204"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="212"/>
+      <c r="B38" s="189" t="s">
+        <v>269</v>
+      </c>
+      <c r="C38" s="190"/>
+      <c r="D38" s="85"/>
+      <c r="E38" s="198"/>
+      <c r="F38" s="202" t="s">
+        <v>266</v>
+      </c>
+      <c r="G38" s="202"/>
+      <c r="H38" s="195" t="s">
+        <v>254</v>
+      </c>
+      <c r="I38" s="196"/>
+    </row>
+    <row r="39" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="212"/>
+      <c r="B39" s="111"/>
+      <c r="C39" s="202" t="s">
+        <v>270</v>
+      </c>
+      <c r="D39" s="202"/>
+      <c r="E39" s="198"/>
+      <c r="F39" s="202" t="s">
+        <v>267</v>
+      </c>
+      <c r="G39" s="202"/>
+      <c r="H39" s="200" t="s">
         <v>255</v>
       </c>
-      <c r="I36" s="170"/>
-    </row>
-    <row r="37" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="184"/>
-      <c r="B37" s="174" t="s">
-        <v>271</v>
-      </c>
-      <c r="C37" s="165"/>
-      <c r="D37" s="86"/>
-      <c r="E37" s="167"/>
-      <c r="F37" s="165" t="s">
-        <v>363</v>
-      </c>
-      <c r="G37" s="165"/>
-      <c r="H37" s="172" t="s">
-        <v>256</v>
-      </c>
-      <c r="I37" s="173"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="184"/>
-      <c r="B38" s="174" t="s">
-        <v>272</v>
-      </c>
-      <c r="C38" s="165"/>
-      <c r="D38" s="86"/>
-      <c r="E38" s="167"/>
-      <c r="F38" s="171" t="s">
-        <v>269</v>
-      </c>
-      <c r="G38" s="171"/>
-      <c r="H38" s="163" t="s">
-        <v>257</v>
-      </c>
-      <c r="I38" s="164"/>
-    </row>
-    <row r="39" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="184"/>
-      <c r="B39" s="112"/>
-      <c r="C39" s="171" t="s">
-        <v>273</v>
-      </c>
-      <c r="D39" s="171"/>
-      <c r="E39" s="167"/>
-      <c r="F39" s="171" t="s">
-        <v>270</v>
-      </c>
-      <c r="G39" s="171"/>
-      <c r="H39" s="169" t="s">
-        <v>258</v>
-      </c>
-      <c r="I39" s="170"/>
+      <c r="I39" s="201"/>
     </row>
     <row r="40" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="184"/>
-      <c r="B40" s="159" t="s">
-        <v>542</v>
-      </c>
-      <c r="C40" s="160"/>
-      <c r="D40" s="161"/>
-      <c r="E40" s="167"/>
-      <c r="F40" s="159" t="s">
-        <v>545</v>
-      </c>
-      <c r="G40" s="160"/>
-      <c r="H40" s="161"/>
-      <c r="I40" s="81"/>
+      <c r="A40" s="212"/>
+      <c r="B40" s="205" t="s">
+        <v>531</v>
+      </c>
+      <c r="C40" s="206"/>
+      <c r="D40" s="207"/>
+      <c r="E40" s="198"/>
+      <c r="F40" s="205" t="s">
+        <v>534</v>
+      </c>
+      <c r="G40" s="206"/>
+      <c r="H40" s="207"/>
+      <c r="I40" s="80"/>
     </row>
     <row r="41" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="184"/>
-      <c r="B41" s="162" t="s">
-        <v>543</v>
-      </c>
-      <c r="C41" s="162"/>
-      <c r="D41" s="162"/>
-      <c r="E41" s="167"/>
-      <c r="F41" s="162" t="s">
-        <v>546</v>
-      </c>
-      <c r="G41" s="162"/>
-      <c r="H41" s="162"/>
-      <c r="I41" s="126"/>
+      <c r="A41" s="212"/>
+      <c r="B41" s="191" t="s">
+        <v>532</v>
+      </c>
+      <c r="C41" s="191"/>
+      <c r="D41" s="191"/>
+      <c r="E41" s="198"/>
+      <c r="F41" s="191" t="s">
+        <v>535</v>
+      </c>
+      <c r="G41" s="191"/>
+      <c r="H41" s="191"/>
+      <c r="I41" s="124"/>
     </row>
     <row r="42" spans="1:9" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="185"/>
-      <c r="B42" s="156" t="s">
-        <v>544</v>
-      </c>
-      <c r="C42" s="157"/>
-      <c r="D42" s="158"/>
-      <c r="E42" s="168"/>
-      <c r="F42" s="156" t="s">
-        <v>547</v>
-      </c>
-      <c r="G42" s="157"/>
-      <c r="H42" s="158"/>
-      <c r="I42" s="125"/>
+      <c r="A42" s="213"/>
+      <c r="B42" s="192" t="s">
+        <v>533</v>
+      </c>
+      <c r="C42" s="193"/>
+      <c r="D42" s="194"/>
+      <c r="E42" s="199"/>
+      <c r="F42" s="192" t="s">
+        <v>536</v>
+      </c>
+      <c r="G42" s="193"/>
+      <c r="H42" s="194"/>
+      <c r="I42" s="123"/>
     </row>
     <row r="43" spans="1:9" s="44" customFormat="1" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="28"/>
@@ -4521,7 +4602,7 @@
       <c r="I43" s="8"/>
     </row>
     <row r="44" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="183" t="s">
+      <c r="A44" s="211" t="s">
         <v>11</v>
       </c>
       <c r="B44" s="52" t="s">
@@ -4533,7 +4614,7 @@
       <c r="D44" s="48" t="s">
         <v>168</v>
       </c>
-      <c r="E44" s="219" t="s">
+      <c r="E44" s="244" t="s">
         <v>9</v>
       </c>
       <c r="F44" s="41" t="s">
@@ -4543,69 +4624,69 @@
         <v>173</v>
       </c>
       <c r="H44" s="48" t="s">
-        <v>235</v>
-      </c>
-      <c r="I44" s="82" t="s">
-        <v>402</v>
+        <v>232</v>
+      </c>
+      <c r="I44" s="81" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="184"/>
+      <c r="A45" s="212"/>
       <c r="B45" s="52" t="s">
         <v>164</v>
       </c>
       <c r="C45" s="48" t="s">
         <v>165</v>
       </c>
-      <c r="D45" s="148" t="s">
-        <v>573</v>
-      </c>
-      <c r="E45" s="219"/>
-      <c r="F45" s="87" t="s">
+      <c r="D45" s="146" t="s">
+        <v>562</v>
+      </c>
+      <c r="E45" s="244"/>
+      <c r="F45" s="86" t="s">
         <v>171</v>
       </c>
-      <c r="G45" s="155"/>
+      <c r="G45" s="152"/>
       <c r="H45" s="48" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="184"/>
+      <c r="A46" s="212"/>
       <c r="B46" s="53" t="s">
-        <v>223</v>
-      </c>
-      <c r="C46" s="87" t="s">
+        <v>220</v>
+      </c>
+      <c r="C46" s="86" t="s">
         <v>166</v>
       </c>
       <c r="D46" s="48" t="s">
         <v>131</v>
       </c>
-      <c r="E46" s="219"/>
+      <c r="E46" s="244"/>
       <c r="F46" s="43" t="s">
         <v>172</v>
       </c>
-      <c r="G46" s="87" t="s">
+      <c r="G46" s="158" t="s">
         <v>174</v>
       </c>
       <c r="H46" s="48" t="s">
         <v>178</v>
       </c>
-      <c r="I46" s="83" t="s">
+      <c r="I46" s="82" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="184"/>
+      <c r="A47" s="212"/>
       <c r="B47" s="53" t="s">
-        <v>399</v>
-      </c>
-      <c r="C47" s="116" t="s">
+        <v>388</v>
+      </c>
+      <c r="C47" s="114" t="s">
         <v>167</v>
       </c>
-      <c r="D47" s="152" t="s">
-        <v>230</v>
-      </c>
-      <c r="E47" s="219"/>
+      <c r="D47" s="158" t="s">
+        <v>227</v>
+      </c>
+      <c r="E47" s="244"/>
       <c r="F47" s="49" t="s">
         <v>160</v>
       </c>
@@ -4615,292 +4696,292 @@
       <c r="H47" s="48" t="s">
         <v>124</v>
       </c>
-      <c r="I47" s="89" t="s">
+      <c r="I47" s="88" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="184"/>
+      <c r="A48" s="212"/>
       <c r="B48" s="53" t="s">
-        <v>400</v>
-      </c>
-      <c r="C48" s="87" t="s">
-        <v>374</v>
-      </c>
-      <c r="D48" s="87" t="s">
+        <v>389</v>
+      </c>
+      <c r="C48" s="86" t="s">
+        <v>363</v>
+      </c>
+      <c r="D48" s="86" t="s">
         <v>170</v>
       </c>
-      <c r="E48" s="219"/>
-      <c r="F48" s="87" t="s">
-        <v>377</v>
+      <c r="E48" s="244"/>
+      <c r="F48" s="86" t="s">
+        <v>366</v>
       </c>
       <c r="G48" s="51" t="s">
         <v>176</v>
       </c>
-      <c r="H48" s="43" t="s">
-        <v>332</v>
-      </c>
-      <c r="I48" s="89" t="s">
-        <v>239</v>
+      <c r="H48" s="186" t="s">
+        <v>324</v>
+      </c>
+      <c r="I48" s="88" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="49" spans="1:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="184"/>
-      <c r="B49" s="113" t="s">
+      <c r="A49" s="212"/>
+      <c r="B49" s="112" t="s">
         <v>106</v>
       </c>
-      <c r="C49" s="43" t="s">
-        <v>327</v>
-      </c>
-      <c r="D49" s="152" t="s">
-        <v>393</v>
-      </c>
-      <c r="E49" s="219"/>
-      <c r="F49" s="43" t="s">
-        <v>331</v>
-      </c>
-      <c r="G49" s="87" t="s">
-        <v>401</v>
+      <c r="C49" s="186" t="s">
+        <v>319</v>
+      </c>
+      <c r="D49" s="150" t="s">
+        <v>382</v>
+      </c>
+      <c r="E49" s="244"/>
+      <c r="F49" s="186" t="s">
+        <v>323</v>
+      </c>
+      <c r="G49" s="86" t="s">
+        <v>390</v>
       </c>
       <c r="H49" s="45" t="s">
-        <v>452</v>
-      </c>
-      <c r="I49" s="81"/>
+        <v>441</v>
+      </c>
+      <c r="I49" s="80"/>
     </row>
     <row r="50" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="184"/>
-      <c r="B50" s="114" t="s">
-        <v>326</v>
-      </c>
-      <c r="C50" s="124"/>
+      <c r="A50" s="212"/>
+      <c r="B50" s="187" t="s">
+        <v>318</v>
+      </c>
+      <c r="C50" s="122"/>
       <c r="D50" s="51" t="s">
         <v>79</v>
       </c>
-      <c r="E50" s="219"/>
+      <c r="E50" s="244"/>
       <c r="F50" s="43" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="G50" s="54" t="s">
         <v>80</v>
       </c>
       <c r="H50" s="45" t="s">
-        <v>333</v>
-      </c>
-      <c r="I50" s="118"/>
+        <v>325</v>
+      </c>
+      <c r="I50" s="116"/>
     </row>
     <row r="51" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="213"/>
-      <c r="B51" s="117"/>
-      <c r="C51" s="86" t="s">
-        <v>237</v>
-      </c>
-      <c r="D51" s="86" t="s">
-        <v>238</v>
-      </c>
-      <c r="E51" s="219"/>
-      <c r="F51" s="148" t="s">
-        <v>572</v>
+      <c r="A51" s="237"/>
+      <c r="B51" s="115"/>
+      <c r="C51" s="85" t="s">
+        <v>234</v>
+      </c>
+      <c r="D51" s="85" t="s">
+        <v>235</v>
+      </c>
+      <c r="E51" s="244"/>
+      <c r="F51" s="146" t="s">
+        <v>561</v>
       </c>
       <c r="G51" s="55" t="s">
         <v>92</v>
       </c>
-      <c r="H51" s="88"/>
-      <c r="I51" s="118"/>
+      <c r="H51" s="87"/>
+      <c r="I51" s="116"/>
     </row>
     <row r="52" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="213"/>
-      <c r="B52" s="117"/>
+      <c r="A52" s="237"/>
+      <c r="B52" s="115"/>
       <c r="C52" s="64" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="D52" s="49" t="s">
         <v>116</v>
       </c>
-      <c r="E52" s="219"/>
-      <c r="F52" s="117"/>
+      <c r="E52" s="244"/>
+      <c r="F52" s="115"/>
       <c r="G52" s="42" t="s">
         <v>107</v>
       </c>
-      <c r="H52" s="204" t="s">
-        <v>286</v>
-      </c>
-      <c r="I52" s="204"/>
+      <c r="H52" s="228" t="s">
+        <v>283</v>
+      </c>
+      <c r="I52" s="228"/>
     </row>
     <row r="53" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="184"/>
-      <c r="B53" s="174" t="s">
+      <c r="A53" s="212"/>
+      <c r="B53" s="189" t="s">
+        <v>242</v>
+      </c>
+      <c r="C53" s="190"/>
+      <c r="D53" s="54" t="s">
+        <v>321</v>
+      </c>
+      <c r="E53" s="244"/>
+      <c r="F53" s="115"/>
+      <c r="G53" s="114" t="s">
+        <v>114</v>
+      </c>
+      <c r="H53" s="228" t="s">
+        <v>243</v>
+      </c>
+      <c r="I53" s="228"/>
+    </row>
+    <row r="54" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="212"/>
+      <c r="B54" s="189" t="s">
+        <v>96</v>
+      </c>
+      <c r="C54" s="190"/>
+      <c r="D54" s="54" t="s">
+        <v>322</v>
+      </c>
+      <c r="E54" s="244"/>
+      <c r="F54" s="218" t="s">
+        <v>248</v>
+      </c>
+      <c r="G54" s="218"/>
+      <c r="H54" s="218" t="s">
+        <v>246</v>
+      </c>
+      <c r="I54" s="218"/>
+    </row>
+    <row r="55" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="212"/>
+      <c r="B55" s="65"/>
+      <c r="C55" s="218" t="s">
+        <v>249</v>
+      </c>
+      <c r="D55" s="218"/>
+      <c r="E55" s="244"/>
+      <c r="F55" s="190" t="s">
+        <v>354</v>
+      </c>
+      <c r="G55" s="190"/>
+      <c r="H55" s="218" t="s">
+        <v>247</v>
+      </c>
+      <c r="I55" s="218"/>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A56" s="212"/>
+      <c r="B56" s="113"/>
+      <c r="C56" s="218" t="s">
+        <v>250</v>
+      </c>
+      <c r="D56" s="218"/>
+      <c r="E56" s="244"/>
+      <c r="F56" s="190" t="s">
+        <v>355</v>
+      </c>
+      <c r="G56" s="190"/>
+      <c r="H56" s="190" t="s">
+        <v>356</v>
+      </c>
+      <c r="I56" s="190"/>
+      <c r="L56" s="66"/>
+    </row>
+    <row r="57" spans="1:12" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="212"/>
+      <c r="B57" s="189" t="s">
+        <v>353</v>
+      </c>
+      <c r="C57" s="190"/>
+      <c r="D57" s="149" t="s">
+        <v>563</v>
+      </c>
+      <c r="E57" s="244"/>
+      <c r="F57" s="115"/>
+      <c r="G57" s="118" t="s">
+        <v>559</v>
+      </c>
+      <c r="H57" s="190" t="s">
+        <v>500</v>
+      </c>
+      <c r="I57" s="190"/>
+      <c r="L57" s="66"/>
+    </row>
+    <row r="58" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="212"/>
+      <c r="B58" s="189" t="s">
+        <v>251</v>
+      </c>
+      <c r="C58" s="190"/>
+      <c r="D58" s="85"/>
+      <c r="E58" s="244"/>
+      <c r="F58" s="115"/>
+      <c r="G58" s="115"/>
+      <c r="H58" s="228" t="s">
         <v>245</v>
       </c>
-      <c r="C53" s="165"/>
-      <c r="D53" s="54" t="s">
-        <v>329</v>
-      </c>
-      <c r="E53" s="219"/>
-      <c r="F53" s="117"/>
-      <c r="G53" s="116" t="s">
-        <v>114</v>
-      </c>
-      <c r="H53" s="204" t="s">
-        <v>246</v>
-      </c>
-      <c r="I53" s="204"/>
-    </row>
-    <row r="54" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="184"/>
-      <c r="B54" s="174" t="s">
-        <v>96</v>
-      </c>
-      <c r="C54" s="165"/>
-      <c r="D54" s="54" t="s">
-        <v>330</v>
-      </c>
-      <c r="E54" s="219"/>
-      <c r="F54" s="189" t="s">
-        <v>251</v>
-      </c>
-      <c r="G54" s="189"/>
-      <c r="H54" s="189" t="s">
-        <v>249</v>
-      </c>
-      <c r="I54" s="189"/>
-    </row>
-    <row r="55" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="184"/>
-      <c r="B55" s="66"/>
-      <c r="C55" s="189" t="s">
-        <v>252</v>
-      </c>
-      <c r="D55" s="189"/>
-      <c r="E55" s="219"/>
-      <c r="F55" s="165" t="s">
-        <v>365</v>
-      </c>
-      <c r="G55" s="165"/>
-      <c r="H55" s="189" t="s">
-        <v>250</v>
-      </c>
-      <c r="I55" s="189"/>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A56" s="184"/>
-      <c r="B56" s="115"/>
-      <c r="C56" s="189" t="s">
-        <v>253</v>
-      </c>
-      <c r="D56" s="189"/>
-      <c r="E56" s="219"/>
-      <c r="F56" s="165" t="s">
-        <v>366</v>
-      </c>
-      <c r="G56" s="165"/>
-      <c r="H56" s="165" t="s">
-        <v>367</v>
-      </c>
-      <c r="I56" s="165"/>
-      <c r="L56" s="67"/>
-    </row>
-    <row r="57" spans="1:12" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="184"/>
-      <c r="B57" s="174" t="s">
-        <v>364</v>
-      </c>
-      <c r="C57" s="165"/>
-      <c r="D57" s="151" t="s">
-        <v>574</v>
-      </c>
-      <c r="E57" s="219"/>
-      <c r="F57" s="117"/>
-      <c r="G57" s="120" t="s">
-        <v>570</v>
-      </c>
-      <c r="H57" s="165" t="s">
-        <v>511</v>
-      </c>
-      <c r="I57" s="165"/>
-      <c r="L57" s="67"/>
-    </row>
-    <row r="58" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="184"/>
-      <c r="B58" s="174" t="s">
-        <v>254</v>
-      </c>
-      <c r="C58" s="165"/>
-      <c r="D58" s="86"/>
-      <c r="E58" s="219"/>
-      <c r="F58" s="117"/>
-      <c r="G58" s="117"/>
-      <c r="H58" s="204" t="s">
-        <v>248</v>
-      </c>
-      <c r="I58" s="204"/>
+      <c r="I58" s="228"/>
       <c r="L58" s="9"/>
     </row>
     <row r="59" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="184"/>
+      <c r="A59" s="212"/>
       <c r="B59" s="50"/>
-      <c r="C59" s="88"/>
-      <c r="D59" s="88"/>
-      <c r="E59" s="219"/>
-      <c r="F59" s="189"/>
-      <c r="G59" s="189"/>
-      <c r="H59" s="204" t="s">
-        <v>450</v>
-      </c>
-      <c r="I59" s="204"/>
+      <c r="C59" s="87"/>
+      <c r="D59" s="87"/>
+      <c r="E59" s="244"/>
+      <c r="F59" s="218"/>
+      <c r="G59" s="218"/>
+      <c r="H59" s="228" t="s">
+        <v>439</v>
+      </c>
+      <c r="I59" s="228"/>
     </row>
     <row r="60" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="184"/>
-      <c r="B60" s="159" t="s">
+      <c r="A60" s="212"/>
+      <c r="B60" s="205" t="s">
         <v>65</v>
       </c>
-      <c r="C60" s="160"/>
-      <c r="D60" s="161"/>
-      <c r="E60" s="219"/>
-      <c r="F60" s="117"/>
-      <c r="G60" s="189" t="s">
-        <v>247</v>
-      </c>
-      <c r="H60" s="189"/>
-      <c r="I60" s="117"/>
+      <c r="C60" s="206"/>
+      <c r="D60" s="207"/>
+      <c r="E60" s="244"/>
+      <c r="F60" s="115"/>
+      <c r="G60" s="218" t="s">
+        <v>244</v>
+      </c>
+      <c r="H60" s="218"/>
+      <c r="I60" s="115"/>
     </row>
     <row r="61" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="184"/>
-      <c r="B61" s="162" t="s">
-        <v>550</v>
-      </c>
-      <c r="C61" s="162"/>
-      <c r="D61" s="162"/>
-      <c r="E61" s="219"/>
-      <c r="G61" s="233" t="s">
-        <v>549</v>
-      </c>
-      <c r="H61" s="234"/>
-      <c r="I61" s="235"/>
+      <c r="A61" s="212"/>
+      <c r="B61" s="191" t="s">
+        <v>539</v>
+      </c>
+      <c r="C61" s="191"/>
+      <c r="D61" s="191"/>
+      <c r="E61" s="244"/>
+      <c r="G61" s="259" t="s">
+        <v>538</v>
+      </c>
+      <c r="H61" s="260"/>
+      <c r="I61" s="261"/>
     </row>
     <row r="62" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="214"/>
-      <c r="B62" s="212" t="s">
-        <v>548</v>
-      </c>
-      <c r="C62" s="212"/>
-      <c r="D62" s="212"/>
-      <c r="E62" s="219"/>
-      <c r="F62" s="149"/>
-      <c r="G62" s="212" t="s">
-        <v>555</v>
-      </c>
-      <c r="H62" s="212"/>
-      <c r="I62" s="212"/>
+      <c r="A62" s="238"/>
+      <c r="B62" s="236" t="s">
+        <v>537</v>
+      </c>
+      <c r="C62" s="236"/>
+      <c r="D62" s="236"/>
+      <c r="E62" s="244"/>
+      <c r="F62" s="147"/>
+      <c r="G62" s="236" t="s">
+        <v>544</v>
+      </c>
+      <c r="H62" s="236"/>
+      <c r="I62" s="236"/>
     </row>
     <row r="63" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="185"/>
-      <c r="E63" s="219"/>
-      <c r="F63" s="127"/>
-      <c r="G63" s="162" t="s">
-        <v>554</v>
-      </c>
-      <c r="H63" s="162"/>
-      <c r="I63" s="162"/>
+      <c r="A63" s="213"/>
+      <c r="E63" s="244"/>
+      <c r="F63" s="125"/>
+      <c r="G63" s="191" t="s">
+        <v>543</v>
+      </c>
+      <c r="H63" s="191"/>
+      <c r="I63" s="191"/>
     </row>
     <row r="64" spans="1:12" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="27"/>
@@ -4914,366 +4995,368 @@
       <c r="I64" s="15"/>
     </row>
     <row r="65" spans="1:10" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="183" t="s">
+      <c r="A65" s="211" t="s">
         <v>12</v>
       </c>
-      <c r="B65" s="87" t="s">
+      <c r="B65" s="86" t="s">
         <v>181</v>
       </c>
       <c r="D65" s="56" t="s">
         <v>186</v>
       </c>
-      <c r="E65" s="242" t="s">
+      <c r="E65" s="264" t="s">
         <v>9</v>
       </c>
       <c r="F65" s="56" t="s">
-        <v>189</v>
-      </c>
-      <c r="G65" s="87" t="s">
-        <v>235</v>
-      </c>
-      <c r="H65" s="86" t="s">
+        <v>565</v>
+      </c>
+      <c r="G65" s="86" t="s">
+        <v>232</v>
+      </c>
+      <c r="H65" s="172" t="s">
         <v>152</v>
       </c>
-      <c r="I65" s="89" t="s">
-        <v>194</v>
+      <c r="I65" s="88" t="s">
+        <v>193</v>
       </c>
       <c r="J65" s="44"/>
     </row>
     <row r="66" spans="1:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="184"/>
+      <c r="A66" s="212"/>
       <c r="B66" s="53" t="s">
         <v>134</v>
       </c>
-      <c r="C66" s="87" t="s">
+      <c r="C66" s="86" t="s">
         <v>183</v>
       </c>
       <c r="D66" s="56" t="s">
         <v>187</v>
       </c>
-      <c r="E66" s="243"/>
-      <c r="F66" s="87" t="s">
+      <c r="E66" s="265"/>
+      <c r="F66" s="86" t="s">
         <v>127</v>
       </c>
-      <c r="H66" s="87" t="s">
-        <v>191</v>
-      </c>
-      <c r="I66" s="77" t="s">
-        <v>334</v>
+      <c r="H66" s="86" t="s">
+        <v>190</v>
+      </c>
+      <c r="I66" s="76" t="s">
+        <v>326</v>
       </c>
       <c r="J66" s="44"/>
     </row>
     <row r="67" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="184"/>
+      <c r="A67" s="212"/>
       <c r="B67" s="53" t="s">
         <v>182</v>
       </c>
-      <c r="C67" s="79" t="s">
+      <c r="C67" s="78" t="s">
         <v>184</v>
       </c>
-      <c r="D67" s="87" t="s">
+      <c r="D67" s="158" t="s">
         <v>123</v>
       </c>
-      <c r="E67" s="243"/>
-      <c r="F67" s="87" t="s">
-        <v>190</v>
-      </c>
-      <c r="G67" s="152" t="s">
-        <v>227</v>
+      <c r="E67" s="265"/>
+      <c r="F67" s="86" t="s">
+        <v>189</v>
+      </c>
+      <c r="G67" s="158" t="s">
+        <v>224</v>
       </c>
       <c r="H67" s="42" t="s">
+        <v>191</v>
+      </c>
+      <c r="I67" s="76" t="s">
+        <v>327</v>
+      </c>
+      <c r="J67" s="44"/>
+    </row>
+    <row r="68" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="212"/>
+      <c r="B68" s="67" t="s">
+        <v>392</v>
+      </c>
+      <c r="C68" s="86" t="s">
+        <v>185</v>
+      </c>
+      <c r="D68" s="86" t="s">
+        <v>188</v>
+      </c>
+      <c r="E68" s="265"/>
+      <c r="F68" s="86" t="s">
+        <v>222</v>
+      </c>
+      <c r="G68" s="86" t="s">
+        <v>222</v>
+      </c>
+      <c r="H68" s="117" t="s">
         <v>192</v>
       </c>
-      <c r="I67" s="77" t="s">
-        <v>335</v>
-      </c>
-      <c r="J67" s="44"/>
-    </row>
-    <row r="68" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="184"/>
-      <c r="B68" s="68" t="s">
-        <v>403</v>
-      </c>
-      <c r="C68" s="87" t="s">
-        <v>185</v>
-      </c>
-      <c r="D68" s="87" t="s">
-        <v>188</v>
-      </c>
-      <c r="E68" s="243"/>
-      <c r="F68" s="87" t="s">
-        <v>225</v>
-      </c>
-      <c r="G68" s="87" t="s">
-        <v>225</v>
-      </c>
-      <c r="H68" s="119" t="s">
-        <v>193</v>
-      </c>
-      <c r="I68" s="147" t="s">
+      <c r="I68" s="145" t="s">
         <v>75</v>
       </c>
       <c r="J68" s="44"/>
     </row>
     <row r="69" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="184"/>
-      <c r="B69" s="69" t="s">
-        <v>404</v>
-      </c>
-      <c r="C69" s="87" t="s">
-        <v>215</v>
-      </c>
-      <c r="D69" s="152" t="s">
-        <v>229</v>
-      </c>
-      <c r="E69" s="243"/>
-      <c r="F69" s="87" t="s">
-        <v>376</v>
-      </c>
-      <c r="G69" s="86" t="s">
-        <v>292</v>
-      </c>
-      <c r="H69" s="86" t="s">
-        <v>336</v>
-      </c>
-      <c r="I69" s="76"/>
+      <c r="A69" s="212"/>
+      <c r="B69" s="68" t="s">
+        <v>393</v>
+      </c>
+      <c r="C69" s="86" t="s">
+        <v>212</v>
+      </c>
+      <c r="D69" s="158" t="s">
+        <v>226</v>
+      </c>
+      <c r="E69" s="265"/>
+      <c r="F69" s="86" t="s">
+        <v>365</v>
+      </c>
+      <c r="G69" s="172" t="s">
+        <v>289</v>
+      </c>
+      <c r="H69" s="267" t="s">
+        <v>575</v>
+      </c>
+      <c r="I69" s="75"/>
       <c r="J69" s="44"/>
     </row>
     <row r="70" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="184"/>
-      <c r="B70" s="79"/>
-      <c r="C70" s="86" t="s">
-        <v>347</v>
-      </c>
-      <c r="D70" s="86" t="s">
-        <v>405</v>
-      </c>
-      <c r="E70" s="243"/>
-      <c r="F70" s="86" t="s">
+      <c r="A70" s="212"/>
+      <c r="B70" s="78"/>
+      <c r="C70" s="180" t="s">
+        <v>338</v>
+      </c>
+      <c r="D70" s="85" t="s">
+        <v>394</v>
+      </c>
+      <c r="E70" s="265"/>
+      <c r="F70" s="85" t="s">
         <v>101</v>
       </c>
-      <c r="G70" s="86" t="s">
-        <v>341</v>
+      <c r="G70" s="180" t="s">
+        <v>332</v>
       </c>
       <c r="H70" s="46" t="s">
-        <v>337</v>
-      </c>
-      <c r="I70" s="77"/>
+        <v>328</v>
+      </c>
+      <c r="I70" s="76"/>
       <c r="J70" s="44"/>
     </row>
     <row r="71" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="184"/>
-      <c r="B71" s="66"/>
-      <c r="C71" s="86" t="s">
+      <c r="A71" s="212"/>
+      <c r="B71" s="65"/>
+      <c r="C71" s="85" t="s">
         <v>100</v>
       </c>
       <c r="D71" s="46" t="s">
         <v>93</v>
       </c>
-      <c r="E71" s="243"/>
-      <c r="F71" s="86" t="s">
+      <c r="E71" s="265"/>
+      <c r="F71" s="85" t="s">
         <v>102</v>
       </c>
-      <c r="G71" s="86" t="s">
-        <v>342</v>
-      </c>
-      <c r="H71" s="46" t="s">
-        <v>338</v>
-      </c>
-      <c r="I71" s="76"/>
+      <c r="G71" s="85" t="s">
+        <v>333</v>
+      </c>
+      <c r="H71" s="188" t="s">
+        <v>524</v>
+      </c>
+      <c r="I71" s="75"/>
       <c r="J71" s="44"/>
     </row>
     <row r="72" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="184"/>
-      <c r="B72" s="70"/>
+      <c r="A72" s="212"/>
+      <c r="B72" s="69"/>
       <c r="C72" s="46" t="s">
-        <v>447</v>
-      </c>
-      <c r="D72" s="86" t="s">
-        <v>346</v>
-      </c>
-      <c r="E72" s="243"/>
+        <v>436</v>
+      </c>
+      <c r="D72" s="180" t="s">
+        <v>337</v>
+      </c>
+      <c r="E72" s="265"/>
       <c r="F72" s="46" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="G72" s="42"/>
-      <c r="H72" s="64" t="s">
+      <c r="H72" s="46" t="s">
+        <v>329</v>
+      </c>
+      <c r="I72" s="75"/>
+      <c r="J72" s="44"/>
+    </row>
+    <row r="73" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="212"/>
+      <c r="B73" s="78"/>
+      <c r="C73" s="46" t="s">
         <v>339</v>
       </c>
-      <c r="I72" s="76"/>
-      <c r="J72" s="44"/>
-    </row>
-    <row r="73" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="184"/>
-      <c r="B73" s="79"/>
-      <c r="C73" s="46" t="s">
-        <v>348</v>
-      </c>
-      <c r="D73" s="86" t="s">
+      <c r="D73" s="85" t="s">
         <v>82</v>
       </c>
-      <c r="E73" s="243"/>
+      <c r="E73" s="265"/>
       <c r="F73" s="46" t="s">
-        <v>344</v>
-      </c>
-      <c r="G73" s="78"/>
+        <v>335</v>
+      </c>
+      <c r="G73" s="77"/>
       <c r="H73" s="64" t="s">
-        <v>340</v>
-      </c>
-      <c r="I73" s="77"/>
+        <v>330</v>
+      </c>
+      <c r="I73" s="76"/>
       <c r="J73" s="44"/>
     </row>
     <row r="74" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="184"/>
-      <c r="B74" s="116"/>
-      <c r="C74" s="171" t="s">
-        <v>411</v>
-      </c>
-      <c r="D74" s="171"/>
-      <c r="E74" s="243"/>
-      <c r="F74" s="86" t="s">
-        <v>345</v>
-      </c>
-      <c r="G74" s="86"/>
-      <c r="H74" s="189" t="s">
+      <c r="A74" s="212"/>
+      <c r="B74" s="114"/>
+      <c r="C74" s="202" t="s">
+        <v>400</v>
+      </c>
+      <c r="D74" s="202"/>
+      <c r="E74" s="265"/>
+      <c r="F74" s="180" t="s">
+        <v>336</v>
+      </c>
+      <c r="G74" s="85"/>
+      <c r="H74" s="64" t="s">
+        <v>331</v>
+      </c>
+      <c r="I74" s="164"/>
+      <c r="J74" s="44"/>
+    </row>
+    <row r="75" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="212"/>
+      <c r="B75" s="114"/>
+      <c r="C75" s="202" t="s">
+        <v>401</v>
+      </c>
+      <c r="D75" s="202"/>
+      <c r="E75" s="265"/>
+      <c r="F75" s="218" t="s">
+        <v>274</v>
+      </c>
+      <c r="G75" s="218"/>
+      <c r="H75" s="163" t="s">
+        <v>272</v>
+      </c>
+      <c r="I75" s="164"/>
+      <c r="J75" s="44"/>
+    </row>
+    <row r="76" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="212"/>
+      <c r="B76" s="114"/>
+      <c r="C76" s="202" t="s">
+        <v>385</v>
+      </c>
+      <c r="D76" s="202"/>
+      <c r="E76" s="265"/>
+      <c r="F76" s="218" t="s">
         <v>275</v>
       </c>
-      <c r="I74" s="190"/>
-      <c r="J74" s="44"/>
-    </row>
-    <row r="75" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="184"/>
-      <c r="B75" s="116"/>
-      <c r="C75" s="171" t="s">
-        <v>412</v>
-      </c>
-      <c r="D75" s="171"/>
-      <c r="E75" s="243"/>
-      <c r="F75" s="189" t="s">
-        <v>277</v>
-      </c>
-      <c r="G75" s="189"/>
-      <c r="H75" s="189" t="s">
-        <v>276</v>
-      </c>
-      <c r="I75" s="190"/>
-      <c r="J75" s="44"/>
-    </row>
-    <row r="76" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="184"/>
-      <c r="B76" s="116"/>
-      <c r="C76" s="171" t="s">
-        <v>396</v>
-      </c>
-      <c r="D76" s="171"/>
-      <c r="E76" s="243"/>
-      <c r="F76" s="189" t="s">
-        <v>278</v>
-      </c>
-      <c r="G76" s="189"/>
-      <c r="H76" s="192" t="s">
-        <v>371</v>
-      </c>
-      <c r="I76" s="193"/>
+      <c r="G76" s="218"/>
+      <c r="H76" s="163" t="s">
+        <v>273</v>
+      </c>
+      <c r="I76" s="166"/>
       <c r="J76" s="44"/>
     </row>
     <row r="77" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="184"/>
-      <c r="B77" s="165" t="s">
+      <c r="A77" s="212"/>
+      <c r="B77" s="190" t="s">
         <v>94</v>
       </c>
-      <c r="C77" s="165"/>
+      <c r="C77" s="190"/>
       <c r="D77" s="42" t="s">
         <v>109</v>
       </c>
-      <c r="E77" s="243"/>
-      <c r="F77" s="192" t="s">
-        <v>369</v>
-      </c>
-      <c r="G77" s="192"/>
-      <c r="H77" s="192" t="s">
-        <v>512</v>
-      </c>
-      <c r="I77" s="193"/>
+      <c r="E77" s="265"/>
+      <c r="F77" s="234" t="s">
+        <v>358</v>
+      </c>
+      <c r="G77" s="234"/>
+      <c r="H77" s="165" t="s">
+        <v>360</v>
+      </c>
+      <c r="I77" s="166"/>
       <c r="J77" s="44" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="78" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="184"/>
-      <c r="B78" s="174" t="s">
-        <v>445</v>
-      </c>
-      <c r="C78" s="165"/>
+      <c r="A78" s="212"/>
+      <c r="B78" s="189" t="s">
+        <v>434</v>
+      </c>
+      <c r="C78" s="190"/>
       <c r="D78" s="42" t="s">
         <v>110</v>
       </c>
-      <c r="E78" s="243"/>
-      <c r="F78" s="192" t="s">
-        <v>370</v>
-      </c>
-      <c r="G78" s="192"/>
-      <c r="H78" s="78" t="s">
-        <v>535</v>
-      </c>
-      <c r="I78" s="81"/>
+      <c r="E78" s="265"/>
+      <c r="F78" s="234" t="s">
+        <v>359</v>
+      </c>
+      <c r="G78" s="234"/>
+      <c r="H78" s="165" t="s">
+        <v>501</v>
+      </c>
+      <c r="I78" s="80"/>
       <c r="J78" s="44"/>
     </row>
     <row r="79" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="184"/>
-      <c r="B79" s="197" t="s">
-        <v>279</v>
-      </c>
-      <c r="C79" s="198"/>
-      <c r="D79" s="78"/>
-      <c r="E79" s="243"/>
-      <c r="F79" s="159" t="s">
+      <c r="A79" s="212"/>
+      <c r="B79" s="222" t="s">
+        <v>276</v>
+      </c>
+      <c r="C79" s="223"/>
+      <c r="D79" s="77"/>
+      <c r="E79" s="265"/>
+      <c r="F79" s="153" t="s">
         <v>62</v>
       </c>
-      <c r="G79" s="160"/>
-      <c r="H79" s="161"/>
-      <c r="I79" s="125"/>
+      <c r="G79" s="154"/>
+      <c r="H79" s="77" t="s">
+        <v>524</v>
+      </c>
+      <c r="I79" s="123"/>
       <c r="J79" s="44"/>
     </row>
     <row r="80" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="184"/>
-      <c r="B80" s="197" t="s">
-        <v>368</v>
-      </c>
-      <c r="C80" s="198"/>
-      <c r="D80" s="87"/>
-      <c r="E80" s="243"/>
-      <c r="F80" s="162" t="s">
-        <v>553</v>
-      </c>
-      <c r="G80" s="162"/>
-      <c r="H80" s="162"/>
-      <c r="I80" s="128"/>
+      <c r="A80" s="212"/>
+      <c r="B80" s="222" t="s">
+        <v>357</v>
+      </c>
+      <c r="C80" s="223"/>
+      <c r="D80" s="86"/>
+      <c r="E80" s="265"/>
+      <c r="F80" s="156" t="s">
+        <v>542</v>
+      </c>
+      <c r="G80" s="156"/>
+      <c r="H80" s="155"/>
+      <c r="I80" s="126"/>
       <c r="J80" s="44"/>
     </row>
     <row r="81" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="184"/>
-      <c r="B81" s="159" t="s">
-        <v>551</v>
-      </c>
-      <c r="C81" s="160"/>
-      <c r="D81" s="161"/>
-      <c r="E81" s="244"/>
-      <c r="I81" s="85"/>
+      <c r="A81" s="212"/>
+      <c r="B81" s="205" t="s">
+        <v>540</v>
+      </c>
+      <c r="C81" s="206"/>
+      <c r="D81" s="207"/>
+      <c r="E81" s="266"/>
+      <c r="H81" s="156"/>
+      <c r="I81" s="84"/>
       <c r="J81" s="44"/>
     </row>
     <row r="82" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="185"/>
-      <c r="B82" s="162" t="s">
-        <v>552</v>
-      </c>
-      <c r="C82" s="162"/>
-      <c r="D82" s="162"/>
-      <c r="E82" s="243"/>
-      <c r="F82" s="78"/>
-      <c r="G82" s="78"/>
-      <c r="H82" s="78"/>
-      <c r="I82" s="81"/>
+      <c r="A82" s="213"/>
+      <c r="B82" s="191" t="s">
+        <v>541</v>
+      </c>
+      <c r="C82" s="191"/>
+      <c r="D82" s="191"/>
+      <c r="E82" s="265"/>
+      <c r="F82" s="77"/>
+      <c r="G82" s="77"/>
+      <c r="I82" s="80"/>
       <c r="J82" s="44"/>
     </row>
     <row r="83" spans="1:10" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5284,391 +5367,391 @@
       <c r="E83" s="19"/>
       <c r="F83" s="17"/>
       <c r="G83" s="17"/>
-      <c r="H83" s="17"/>
+      <c r="H83" s="77"/>
       <c r="I83" s="20"/>
     </row>
     <row r="84" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="194" t="s">
+      <c r="A84" s="219" t="s">
         <v>14</v>
       </c>
       <c r="B84" s="53" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C84" s="42" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D84" s="51" t="s">
-        <v>224</v>
-      </c>
-      <c r="E84" s="166" t="s">
+        <v>221</v>
+      </c>
+      <c r="E84" s="197" t="s">
         <v>9</v>
       </c>
-      <c r="F84" s="87" t="s">
+      <c r="F84" s="158" t="s">
+        <v>566</v>
+      </c>
+      <c r="G84" s="256" t="s">
+        <v>60</v>
+      </c>
+      <c r="H84" s="17"/>
+      <c r="I84" s="88" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="220"/>
+      <c r="B85" s="53" t="s">
+        <v>194</v>
+      </c>
+      <c r="C85" s="158" t="s">
+        <v>196</v>
+      </c>
+      <c r="D85" s="158" t="s">
+        <v>200</v>
+      </c>
+      <c r="E85" s="198"/>
+      <c r="F85" s="86" t="s">
+        <v>202</v>
+      </c>
+      <c r="G85" s="257"/>
+      <c r="H85" s="86" t="s">
+        <v>204</v>
+      </c>
+      <c r="I85" s="88" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="220"/>
+      <c r="B86" s="53" t="s">
+        <v>230</v>
+      </c>
+      <c r="C86" s="86" t="s">
+        <v>197</v>
+      </c>
+      <c r="D86" s="86" t="s">
+        <v>201</v>
+      </c>
+      <c r="E86" s="198"/>
+      <c r="F86" s="158" t="s">
         <v>203</v>
       </c>
-      <c r="G84" s="230" t="s">
-        <v>60</v>
-      </c>
-      <c r="H84" s="87" t="s">
-        <v>206</v>
-      </c>
-      <c r="I84" s="89" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="195"/>
-      <c r="B85" s="53" t="s">
+      <c r="G86" s="257"/>
+      <c r="H86" s="158" t="s">
+        <v>205</v>
+      </c>
+      <c r="I86" s="88" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="220"/>
+      <c r="B87" s="53" t="s">
         <v>195</v>
       </c>
-      <c r="C85" s="87" t="s">
-        <v>197</v>
-      </c>
-      <c r="D85" s="87" t="s">
-        <v>201</v>
-      </c>
-      <c r="E85" s="167"/>
-      <c r="F85" s="87" t="s">
-        <v>204</v>
-      </c>
-      <c r="G85" s="231"/>
-      <c r="H85" s="87" t="s">
-        <v>207</v>
-      </c>
-      <c r="I85" s="89" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="195"/>
-      <c r="B86" s="53" t="s">
-        <v>233</v>
-      </c>
-      <c r="C86" s="87" t="s">
+      <c r="C87" s="86" t="s">
         <v>198</v>
       </c>
-      <c r="D86" s="87" t="s">
-        <v>202</v>
-      </c>
-      <c r="E86" s="167"/>
-      <c r="F86" s="87" t="s">
-        <v>205</v>
-      </c>
-      <c r="G86" s="231"/>
-      <c r="H86" s="87" t="s">
+      <c r="D87" s="86" t="s">
+        <v>135</v>
+      </c>
+      <c r="E87" s="198"/>
+      <c r="F87" s="86" t="s">
+        <v>88</v>
+      </c>
+      <c r="G87" s="257"/>
+      <c r="H87" s="86" t="s">
         <v>179</v>
       </c>
-      <c r="I86" s="89" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="195"/>
-      <c r="B87" s="53" t="s">
-        <v>196</v>
-      </c>
-      <c r="C87" s="87" t="s">
+      <c r="I87" s="75"/>
+    </row>
+    <row r="88" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="220"/>
+      <c r="B88" s="69" t="s">
+        <v>340</v>
+      </c>
+      <c r="C88" s="86" t="s">
         <v>199</v>
       </c>
-      <c r="D87" s="87" t="s">
-        <v>135</v>
-      </c>
-      <c r="E87" s="167"/>
-      <c r="F87" s="87" t="s">
-        <v>88</v>
-      </c>
-      <c r="G87" s="231"/>
-      <c r="H87" s="86" t="s">
-        <v>351</v>
-      </c>
-      <c r="I87" s="76"/>
-    </row>
-    <row r="88" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="195"/>
-      <c r="B88" s="70" t="s">
-        <v>349</v>
-      </c>
-      <c r="C88" s="87" t="s">
-        <v>200</v>
-      </c>
-      <c r="D88" s="152" t="s">
-        <v>228</v>
-      </c>
-      <c r="E88" s="167"/>
-      <c r="F88" s="116" t="s">
+      <c r="D88" s="158" t="s">
+        <v>225</v>
+      </c>
+      <c r="E88" s="198"/>
+      <c r="F88" s="114" t="s">
         <v>89</v>
       </c>
-      <c r="G88" s="231"/>
-      <c r="H88" s="46" t="s">
-        <v>352</v>
-      </c>
-      <c r="I88" s="76"/>
+      <c r="G88" s="257"/>
+      <c r="H88" s="180" t="s">
+        <v>573</v>
+      </c>
+      <c r="I88" s="75"/>
     </row>
     <row r="89" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="195"/>
-      <c r="B89" s="70" t="s">
-        <v>446</v>
-      </c>
-      <c r="C89" s="87" t="s">
-        <v>399</v>
-      </c>
-      <c r="D89" s="87" t="s">
-        <v>406</v>
-      </c>
-      <c r="E89" s="167"/>
+      <c r="A89" s="220"/>
+      <c r="B89" s="69" t="s">
+        <v>435</v>
+      </c>
+      <c r="C89" s="86" t="s">
+        <v>388</v>
+      </c>
+      <c r="D89" s="86" t="s">
+        <v>395</v>
+      </c>
+      <c r="E89" s="198"/>
       <c r="F89" s="42" t="s">
         <v>111</v>
       </c>
-      <c r="G89" s="231"/>
-      <c r="H89" s="86" t="s">
-        <v>353</v>
-      </c>
-      <c r="I89" s="76"/>
+      <c r="G89" s="257"/>
+      <c r="H89" s="181" t="s">
+        <v>342</v>
+      </c>
+      <c r="I89" s="75"/>
     </row>
     <row r="90" spans="1:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="195"/>
+      <c r="A90" s="220"/>
       <c r="B90" s="48" t="s">
-        <v>536</v>
+        <v>525</v>
       </c>
       <c r="C90" s="46" t="s">
-        <v>350</v>
-      </c>
-      <c r="D90" s="86" t="s">
+        <v>341</v>
+      </c>
+      <c r="D90" s="85" t="s">
         <v>87</v>
       </c>
-      <c r="E90" s="167"/>
+      <c r="E90" s="198"/>
       <c r="F90" s="42" t="s">
         <v>112</v>
       </c>
-      <c r="G90" s="231"/>
-      <c r="H90" s="86" t="s">
-        <v>354</v>
-      </c>
-      <c r="I90" s="76"/>
+      <c r="G90" s="257"/>
+      <c r="H90" s="180" t="s">
+        <v>343</v>
+      </c>
+      <c r="I90" s="75"/>
     </row>
     <row r="91" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="195"/>
-      <c r="B91" s="78"/>
+      <c r="A91" s="220"/>
+      <c r="B91" s="77"/>
       <c r="C91" s="64" t="s">
         <v>113</v>
       </c>
-      <c r="D91" s="86" t="s">
+      <c r="D91" s="85" t="s">
         <v>85</v>
       </c>
-      <c r="E91" s="167"/>
-      <c r="F91" s="150" t="s">
-        <v>569</v>
-      </c>
-      <c r="G91" s="231"/>
-      <c r="H91" s="46" t="s">
+      <c r="E91" s="198"/>
+      <c r="F91" s="148" t="s">
+        <v>558</v>
+      </c>
+      <c r="G91" s="257"/>
+      <c r="H91" s="180" t="s">
+        <v>344</v>
+      </c>
+      <c r="I91" s="75"/>
+    </row>
+    <row r="92" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="220"/>
+      <c r="B92" s="77"/>
+      <c r="C92" s="85" t="s">
+        <v>84</v>
+      </c>
+      <c r="D92" s="85" t="s">
+        <v>86</v>
+      </c>
+      <c r="E92" s="198"/>
+      <c r="F92" s="127"/>
+      <c r="G92" s="257"/>
+      <c r="H92" s="46" t="s">
         <v>90</v>
       </c>
-      <c r="I91" s="76"/>
-    </row>
-    <row r="92" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="195"/>
-      <c r="B92" s="78"/>
-      <c r="C92" s="86" t="s">
-        <v>84</v>
-      </c>
-      <c r="D92" s="86" t="s">
-        <v>86</v>
-      </c>
-      <c r="E92" s="167"/>
-      <c r="F92" s="129"/>
-      <c r="G92" s="231"/>
-      <c r="H92" s="64" t="s">
-        <v>355</v>
-      </c>
-      <c r="I92" s="76"/>
+      <c r="I92" s="75"/>
     </row>
     <row r="93" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="195"/>
-      <c r="B93" s="66"/>
-      <c r="C93" s="86" t="s">
+      <c r="A93" s="220"/>
+      <c r="B93" s="65"/>
+      <c r="C93" s="85" t="s">
         <v>83</v>
       </c>
-      <c r="D93" s="86"/>
-      <c r="E93" s="167"/>
-      <c r="F93" s="129"/>
-      <c r="G93" s="231"/>
+      <c r="D93" s="85"/>
+      <c r="E93" s="198"/>
+      <c r="F93" s="127"/>
+      <c r="G93" s="257"/>
       <c r="H93" s="64" t="s">
-        <v>515</v>
-      </c>
-      <c r="I93" s="76"/>
+        <v>345</v>
+      </c>
+      <c r="I93" s="75"/>
     </row>
     <row r="94" spans="1:10" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="195"/>
-      <c r="B94" s="240" t="s">
-        <v>288</v>
-      </c>
-      <c r="C94" s="208"/>
-      <c r="D94" s="86"/>
-      <c r="E94" s="167"/>
-      <c r="F94" s="116"/>
-      <c r="G94" s="231"/>
+      <c r="A94" s="220"/>
+      <c r="B94" s="262" t="s">
+        <v>285</v>
+      </c>
+      <c r="C94" s="233"/>
+      <c r="D94" s="85"/>
+      <c r="E94" s="198"/>
+      <c r="F94" s="114"/>
+      <c r="G94" s="257"/>
       <c r="H94" s="64" t="s">
-        <v>516</v>
-      </c>
-      <c r="I94" s="76"/>
+        <v>504</v>
+      </c>
+      <c r="I94" s="75"/>
     </row>
     <row r="95" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="195"/>
-      <c r="B95" s="66"/>
-      <c r="C95" s="207" t="s">
-        <v>397</v>
-      </c>
-      <c r="D95" s="208"/>
-      <c r="E95" s="167"/>
+      <c r="A95" s="220"/>
+      <c r="B95" s="65"/>
+      <c r="C95" s="232" t="s">
+        <v>386</v>
+      </c>
+      <c r="D95" s="233"/>
+      <c r="E95" s="198"/>
       <c r="F95" s="51"/>
-      <c r="G95" s="231"/>
-      <c r="H95" s="192" t="s">
-        <v>243</v>
-      </c>
-      <c r="I95" s="193"/>
+      <c r="G95" s="257"/>
+      <c r="H95" s="64" t="s">
+        <v>505</v>
+      </c>
+      <c r="I95" s="166"/>
     </row>
     <row r="96" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="195"/>
+      <c r="A96" s="220"/>
       <c r="B96" s="53"/>
-      <c r="C96" s="116"/>
-      <c r="D96" s="86"/>
-      <c r="E96" s="167"/>
-      <c r="F96" s="116"/>
-      <c r="G96" s="231"/>
-      <c r="H96" s="192" t="s">
-        <v>216</v>
-      </c>
-      <c r="I96" s="193"/>
+      <c r="C96" s="114"/>
+      <c r="D96" s="85"/>
+      <c r="E96" s="198"/>
+      <c r="F96" s="114"/>
+      <c r="G96" s="257"/>
+      <c r="H96" s="165" t="s">
+        <v>240</v>
+      </c>
+      <c r="I96" s="166"/>
     </row>
     <row r="97" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="195"/>
-      <c r="B97" s="211" t="s">
-        <v>372</v>
-      </c>
-      <c r="C97" s="174"/>
-      <c r="D97" s="87"/>
-      <c r="E97" s="167"/>
-      <c r="F97" s="116"/>
-      <c r="G97" s="231"/>
-      <c r="H97" s="189" t="s">
+      <c r="A97" s="220"/>
+      <c r="B97" s="235" t="s">
+        <v>361</v>
+      </c>
+      <c r="C97" s="189"/>
+      <c r="D97" s="86"/>
+      <c r="E97" s="198"/>
+      <c r="F97" s="114"/>
+      <c r="G97" s="257"/>
+      <c r="H97" s="165" t="s">
+        <v>213</v>
+      </c>
+      <c r="I97" s="164"/>
+    </row>
+    <row r="98" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="220"/>
+      <c r="B98" s="235" t="s">
+        <v>69</v>
+      </c>
+      <c r="C98" s="189"/>
+      <c r="D98" s="86"/>
+      <c r="E98" s="198"/>
+      <c r="F98" s="117"/>
+      <c r="G98" s="257"/>
+      <c r="H98" s="163" t="s">
+        <v>278</v>
+      </c>
+      <c r="I98" s="164"/>
+    </row>
+    <row r="99" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="220"/>
+      <c r="B99" s="50"/>
+      <c r="C99" s="202" t="s">
         <v>281</v>
       </c>
-      <c r="I97" s="190"/>
-    </row>
-    <row r="98" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="195"/>
-      <c r="B98" s="211" t="s">
-        <v>69</v>
-      </c>
-      <c r="C98" s="174"/>
-      <c r="D98" s="87"/>
-      <c r="E98" s="167"/>
-      <c r="F98" s="119"/>
-      <c r="G98" s="231"/>
-      <c r="H98" s="189" t="s">
+      <c r="D99" s="202"/>
+      <c r="E99" s="198"/>
+      <c r="F99" s="114"/>
+      <c r="G99" s="257"/>
+      <c r="H99" s="163" t="s">
+        <v>279</v>
+      </c>
+      <c r="I99" s="166"/>
+    </row>
+    <row r="100" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="220"/>
+      <c r="B100" s="53"/>
+      <c r="C100" s="202" t="s">
         <v>282</v>
       </c>
-      <c r="I98" s="190"/>
-    </row>
-    <row r="99" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="195"/>
-      <c r="B99" s="50"/>
-      <c r="C99" s="171" t="s">
-        <v>284</v>
-      </c>
-      <c r="D99" s="171"/>
-      <c r="E99" s="167"/>
-      <c r="F99" s="116"/>
-      <c r="G99" s="231"/>
-      <c r="H99" s="192" t="s">
-        <v>453</v>
-      </c>
-      <c r="I99" s="193"/>
-    </row>
-    <row r="100" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="195"/>
-      <c r="B100" s="53"/>
-      <c r="C100" s="171" t="s">
-        <v>285</v>
-      </c>
-      <c r="D100" s="171"/>
-      <c r="E100" s="167"/>
-      <c r="F100" s="129"/>
-      <c r="G100" s="231"/>
-      <c r="H100" s="192" t="s">
+      <c r="D100" s="202"/>
+      <c r="E100" s="198"/>
+      <c r="F100" s="127"/>
+      <c r="G100" s="257"/>
+      <c r="H100" s="165" t="s">
+        <v>442</v>
+      </c>
+      <c r="I100" s="166"/>
+    </row>
+    <row r="101" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="220"/>
+      <c r="B101" s="50"/>
+      <c r="C101" s="87"/>
+      <c r="D101" s="87"/>
+      <c r="E101" s="198"/>
+      <c r="F101" s="127"/>
+      <c r="G101" s="257"/>
+      <c r="H101" s="165" t="s">
+        <v>277</v>
+      </c>
+      <c r="I101" s="170"/>
+    </row>
+    <row r="102" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="220"/>
+      <c r="B102" s="205" t="s">
+        <v>66</v>
+      </c>
+      <c r="C102" s="206"/>
+      <c r="D102" s="207"/>
+      <c r="E102" s="198"/>
+      <c r="F102" s="127"/>
+      <c r="G102" s="258"/>
+      <c r="H102" s="157" t="s">
         <v>280</v>
       </c>
-      <c r="I100" s="193"/>
-    </row>
-    <row r="101" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="195"/>
-      <c r="B101" s="50"/>
-      <c r="C101" s="88"/>
-      <c r="D101" s="88"/>
-      <c r="E101" s="167"/>
-      <c r="F101" s="129"/>
-      <c r="G101" s="231"/>
-      <c r="H101" s="165" t="s">
-        <v>283</v>
-      </c>
-      <c r="I101" s="209"/>
-    </row>
-    <row r="102" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="195"/>
-      <c r="B102" s="159" t="s">
-        <v>66</v>
-      </c>
-      <c r="C102" s="160"/>
-      <c r="D102" s="161"/>
-      <c r="E102" s="167"/>
-      <c r="F102" s="129"/>
-      <c r="G102" s="232"/>
-      <c r="H102" s="165" t="s">
-        <v>373</v>
-      </c>
-      <c r="I102" s="209"/>
+      <c r="I102" s="170"/>
     </row>
     <row r="103" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="195"/>
-      <c r="B103" s="162" t="s">
-        <v>556</v>
-      </c>
-      <c r="C103" s="162"/>
-      <c r="D103" s="162"/>
-      <c r="E103" s="241"/>
-      <c r="G103" s="236" t="s">
-        <v>558</v>
-      </c>
-      <c r="H103" s="234"/>
-      <c r="I103" s="234"/>
+      <c r="A103" s="220"/>
+      <c r="B103" s="191" t="s">
+        <v>545</v>
+      </c>
+      <c r="C103" s="191"/>
+      <c r="D103" s="191"/>
+      <c r="E103" s="263"/>
+      <c r="G103" s="174" t="s">
+        <v>547</v>
+      </c>
+      <c r="H103" s="157" t="s">
+        <v>362</v>
+      </c>
+      <c r="I103" s="173"/>
     </row>
     <row r="104" spans="1:9" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="196"/>
-      <c r="B104" s="212" t="s">
-        <v>557</v>
-      </c>
-      <c r="C104" s="212"/>
-      <c r="D104" s="212"/>
-      <c r="E104" s="167"/>
+      <c r="A104" s="221"/>
+      <c r="B104" s="236" t="s">
+        <v>546</v>
+      </c>
+      <c r="C104" s="236"/>
+      <c r="D104" s="236"/>
+      <c r="E104" s="198"/>
       <c r="F104" s="40"/>
-      <c r="G104" s="162" t="s">
-        <v>559</v>
-      </c>
-      <c r="H104" s="162"/>
-      <c r="I104" s="162"/>
+      <c r="G104" s="156" t="s">
+        <v>548</v>
+      </c>
+      <c r="H104" s="173"/>
+      <c r="I104" s="156"/>
     </row>
     <row r="105" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="61"/>
-      <c r="B105" s="86"/>
-      <c r="C105" s="165"/>
-      <c r="D105" s="165"/>
-      <c r="E105" s="168"/>
-      <c r="F105" s="87"/>
-      <c r="G105" s="162" t="s">
-        <v>560</v>
-      </c>
-      <c r="H105" s="162"/>
-      <c r="I105" s="162"/>
+      <c r="B105" s="85"/>
+      <c r="C105" s="190"/>
+      <c r="D105" s="190"/>
+      <c r="E105" s="199"/>
+      <c r="F105" s="86"/>
+      <c r="G105" s="156" t="s">
+        <v>549</v>
+      </c>
+      <c r="H105" s="156"/>
+      <c r="I105" s="156"/>
     </row>
     <row r="106" spans="1:9" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="30"/>
@@ -5678,252 +5761,252 @@
       <c r="E106" s="21"/>
       <c r="F106" s="17"/>
       <c r="G106" s="17"/>
-      <c r="H106" s="17"/>
+      <c r="H106" s="156"/>
       <c r="I106" s="20"/>
     </row>
-    <row r="107" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="183" t="s">
+    <row r="107" spans="1:9" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="211" t="s">
         <v>15</v>
       </c>
-      <c r="B107" s="66" t="s">
+      <c r="B107" s="65" t="s">
         <v>136</v>
       </c>
-      <c r="C107" s="87" t="s">
-        <v>221</v>
-      </c>
-      <c r="D107" s="87" t="s">
+      <c r="C107" s="86" t="s">
+        <v>218</v>
+      </c>
+      <c r="D107" s="86" t="s">
         <v>157</v>
       </c>
       <c r="E107" s="51" t="s">
-        <v>358</v>
+        <v>347</v>
       </c>
       <c r="F107" s="50"/>
-      <c r="G107" s="72"/>
-      <c r="H107" s="72"/>
-      <c r="I107" s="73"/>
+      <c r="G107" s="71"/>
+      <c r="H107" s="17"/>
+      <c r="I107" s="72"/>
     </row>
     <row r="108" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="191"/>
+      <c r="A108" s="217"/>
       <c r="B108" s="53" t="s">
+        <v>206</v>
+      </c>
+      <c r="C108" s="86" t="s">
+        <v>209</v>
+      </c>
+      <c r="D108" s="86" t="s">
+        <v>210</v>
+      </c>
+      <c r="E108" s="51" t="s">
+        <v>348</v>
+      </c>
+      <c r="F108" s="50"/>
+      <c r="G108" s="73"/>
+      <c r="H108" s="71"/>
+      <c r="I108" s="74"/>
+    </row>
+    <row r="109" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="217"/>
+      <c r="B109" s="53" t="s">
+        <v>207</v>
+      </c>
+      <c r="C109" s="86" t="s">
+        <v>230</v>
+      </c>
+      <c r="D109" s="178" t="s">
+        <v>567</v>
+      </c>
+      <c r="E109" s="87"/>
+      <c r="F109" s="50"/>
+      <c r="G109" s="73"/>
+      <c r="H109" s="73"/>
+      <c r="I109" s="74"/>
+    </row>
+    <row r="110" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="212"/>
+      <c r="B110" s="53"/>
+      <c r="C110" s="85" t="s">
+        <v>346</v>
+      </c>
+      <c r="D110" s="228" t="s">
+        <v>402</v>
+      </c>
+      <c r="E110" s="228"/>
+      <c r="F110" s="65"/>
+      <c r="G110" s="47"/>
+      <c r="H110" s="73"/>
+      <c r="I110" s="70"/>
+    </row>
+    <row r="111" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="212"/>
+      <c r="B111" s="65" t="s">
         <v>208</v>
       </c>
-      <c r="C108" s="87" t="s">
-        <v>212</v>
-      </c>
-      <c r="D108" s="87" t="s">
-        <v>213</v>
-      </c>
-      <c r="E108" s="51" t="s">
-        <v>359</v>
-      </c>
-      <c r="F108" s="50"/>
-      <c r="G108" s="74"/>
-      <c r="H108" s="74"/>
-      <c r="I108" s="75"/>
-    </row>
-    <row r="109" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="191"/>
-      <c r="B109" s="53" t="s">
-        <v>209</v>
-      </c>
-      <c r="C109" s="87" t="s">
-        <v>233</v>
-      </c>
-      <c r="D109" s="88"/>
-      <c r="E109" s="88"/>
-      <c r="F109" s="50"/>
-      <c r="G109" s="74"/>
-      <c r="H109" s="74"/>
-      <c r="I109" s="75"/>
-    </row>
-    <row r="110" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="184"/>
-      <c r="B110" s="53" t="s">
-        <v>210</v>
-      </c>
-      <c r="C110" s="86" t="s">
-        <v>356</v>
-      </c>
-      <c r="D110" s="204" t="s">
-        <v>413</v>
-      </c>
-      <c r="E110" s="204"/>
-      <c r="F110" s="66"/>
-      <c r="G110" s="47"/>
-      <c r="H110" s="47"/>
-      <c r="I110" s="71"/>
-    </row>
-    <row r="111" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="184"/>
-      <c r="B111" s="66" t="s">
-        <v>211</v>
-      </c>
-      <c r="C111" s="87" t="s">
-        <v>357</v>
-      </c>
-      <c r="D111" s="204" t="s">
-        <v>414</v>
-      </c>
-      <c r="E111" s="204"/>
-      <c r="F111" s="66"/>
+      <c r="C111" s="182" t="s">
+        <v>572</v>
+      </c>
+      <c r="D111" s="228" t="s">
+        <v>403</v>
+      </c>
+      <c r="E111" s="228"/>
+      <c r="F111" s="65"/>
       <c r="G111" s="47"/>
       <c r="H111" s="47"/>
-      <c r="I111" s="71"/>
+      <c r="I111" s="70"/>
     </row>
     <row r="112" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="184"/>
-      <c r="B112" s="66"/>
+      <c r="A112" s="212"/>
+      <c r="B112" s="65"/>
       <c r="C112" s="44"/>
-      <c r="D112" s="116"/>
-      <c r="E112" s="116"/>
-      <c r="F112" s="66"/>
+      <c r="D112" s="114"/>
+      <c r="E112" s="114"/>
+      <c r="F112" s="65"/>
       <c r="G112" s="47"/>
       <c r="H112" s="47"/>
-      <c r="I112" s="71"/>
+      <c r="I112" s="70"/>
     </row>
     <row r="113" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="184"/>
-      <c r="B113" s="66"/>
-      <c r="C113" s="171" t="s">
-        <v>289</v>
-      </c>
-      <c r="D113" s="171"/>
-      <c r="E113" s="86"/>
-      <c r="F113" s="66"/>
+      <c r="A113" s="212"/>
+      <c r="B113" s="65"/>
+      <c r="C113" s="202" t="s">
+        <v>286</v>
+      </c>
+      <c r="D113" s="202"/>
+      <c r="E113" s="85"/>
+      <c r="F113" s="65"/>
       <c r="G113" s="47"/>
       <c r="H113" s="47"/>
-      <c r="I113" s="71"/>
+      <c r="I113" s="70"/>
     </row>
     <row r="114" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="184"/>
-      <c r="B114" s="66"/>
-      <c r="C114" s="171" t="s">
-        <v>290</v>
-      </c>
-      <c r="D114" s="171"/>
-      <c r="E114" s="86"/>
-      <c r="F114" s="66"/>
+      <c r="A114" s="212"/>
+      <c r="B114" s="65"/>
+      <c r="C114" s="202" t="s">
+        <v>287</v>
+      </c>
+      <c r="D114" s="202"/>
+      <c r="E114" s="85"/>
+      <c r="F114" s="65"/>
       <c r="G114" s="47"/>
       <c r="H114" s="47"/>
-      <c r="I114" s="71"/>
+      <c r="I114" s="70"/>
     </row>
     <row r="115" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="184"/>
-      <c r="B115" s="66"/>
-      <c r="C115" s="204" t="s">
-        <v>508</v>
-      </c>
-      <c r="D115" s="204"/>
-      <c r="E115" s="86"/>
-      <c r="F115" s="66"/>
+      <c r="A115" s="212"/>
+      <c r="B115" s="65"/>
+      <c r="C115" s="228" t="s">
+        <v>497</v>
+      </c>
+      <c r="D115" s="228"/>
+      <c r="E115" s="85"/>
+      <c r="F115" s="65"/>
       <c r="G115" s="47"/>
       <c r="H115" s="47"/>
-      <c r="I115" s="71"/>
+      <c r="I115" s="70"/>
     </row>
     <row r="116" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="184"/>
-      <c r="B116" s="174" t="s">
-        <v>219</v>
-      </c>
-      <c r="C116" s="165"/>
-      <c r="D116" s="171" t="s">
-        <v>398</v>
-      </c>
-      <c r="E116" s="171"/>
-      <c r="F116" s="66"/>
+      <c r="A116" s="212"/>
+      <c r="B116" s="189" t="s">
+        <v>216</v>
+      </c>
+      <c r="C116" s="190"/>
+      <c r="D116" s="202" t="s">
+        <v>387</v>
+      </c>
+      <c r="E116" s="202"/>
+      <c r="F116" s="65"/>
       <c r="G116" s="47"/>
       <c r="H116" s="47"/>
-      <c r="I116" s="71"/>
+      <c r="I116" s="70"/>
     </row>
     <row r="117" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="184"/>
-      <c r="B117" s="174" t="s">
-        <v>244</v>
-      </c>
-      <c r="C117" s="165"/>
-      <c r="D117" s="165" t="s">
-        <v>218</v>
-      </c>
-      <c r="E117" s="165"/>
+      <c r="A117" s="212"/>
+      <c r="B117" s="189" t="s">
+        <v>241</v>
+      </c>
+      <c r="C117" s="190"/>
+      <c r="D117" s="190" t="s">
+        <v>215</v>
+      </c>
+      <c r="E117" s="190"/>
       <c r="F117" s="50"/>
       <c r="G117" s="47"/>
       <c r="H117" s="47"/>
-      <c r="I117" s="71"/>
+      <c r="I117" s="70"/>
     </row>
     <row r="118" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="184"/>
-      <c r="B118" s="174" t="s">
+      <c r="A118" s="212"/>
+      <c r="B118" s="189" t="s">
         <v>98</v>
       </c>
-      <c r="C118" s="165"/>
-      <c r="D118" s="165" t="s">
-        <v>323</v>
-      </c>
-      <c r="E118" s="165"/>
-      <c r="F118" s="78"/>
+      <c r="C118" s="190"/>
+      <c r="D118" s="190" t="s">
+        <v>315</v>
+      </c>
+      <c r="E118" s="190"/>
+      <c r="F118" s="77"/>
       <c r="G118" s="47"/>
       <c r="H118" s="47"/>
-      <c r="I118" s="71"/>
+      <c r="I118" s="70"/>
     </row>
     <row r="119" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="184"/>
-      <c r="B119" s="174" t="s">
-        <v>217</v>
-      </c>
-      <c r="C119" s="165"/>
+      <c r="A119" s="212"/>
+      <c r="B119" s="189" t="s">
+        <v>214</v>
+      </c>
+      <c r="C119" s="190"/>
       <c r="F119" s="53"/>
       <c r="G119" s="47"/>
       <c r="H119" s="47"/>
-      <c r="I119" s="71"/>
+      <c r="I119" s="70"/>
     </row>
     <row r="120" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="184"/>
-      <c r="B120" s="159" t="s">
+      <c r="A120" s="212"/>
+      <c r="B120" s="205" t="s">
         <v>63</v>
       </c>
-      <c r="C120" s="160"/>
-      <c r="D120" s="161"/>
+      <c r="C120" s="206"/>
+      <c r="D120" s="207"/>
       <c r="F120" s="53"/>
       <c r="G120" s="47"/>
       <c r="H120" s="47"/>
-      <c r="I120" s="71"/>
+      <c r="I120" s="70"/>
     </row>
     <row r="121" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="184"/>
-      <c r="B121" s="162" t="s">
-        <v>561</v>
-      </c>
-      <c r="C121" s="162"/>
-      <c r="D121" s="162"/>
-      <c r="E121" s="78"/>
-      <c r="F121" s="66"/>
+      <c r="A121" s="212"/>
+      <c r="B121" s="191" t="s">
+        <v>550</v>
+      </c>
+      <c r="C121" s="191"/>
+      <c r="D121" s="191"/>
+      <c r="E121" s="77"/>
+      <c r="F121" s="65"/>
       <c r="G121" s="47"/>
       <c r="H121" s="47"/>
-      <c r="I121" s="71"/>
+      <c r="I121" s="70"/>
     </row>
     <row r="122" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="184"/>
-      <c r="B122" s="212" t="s">
-        <v>562</v>
-      </c>
-      <c r="C122" s="212"/>
-      <c r="D122" s="212"/>
+      <c r="A122" s="212"/>
+      <c r="B122" s="236" t="s">
+        <v>551</v>
+      </c>
+      <c r="C122" s="236"/>
+      <c r="D122" s="236"/>
       <c r="E122" s="44"/>
       <c r="F122" s="53"/>
       <c r="G122" s="47"/>
       <c r="H122" s="47"/>
-      <c r="I122" s="71"/>
+      <c r="I122" s="70"/>
     </row>
     <row r="123" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="185"/>
-      <c r="B123" s="174"/>
-      <c r="C123" s="165"/>
-      <c r="D123" s="171"/>
-      <c r="E123" s="171"/>
+      <c r="A123" s="213"/>
+      <c r="B123" s="189"/>
+      <c r="C123" s="190"/>
+      <c r="D123" s="202"/>
+      <c r="E123" s="202"/>
       <c r="F123" s="53"/>
       <c r="G123" s="47"/>
       <c r="H123" s="47"/>
-      <c r="I123" s="71"/>
+      <c r="I123" s="70"/>
     </row>
     <row r="124" spans="1:9" s="44" customFormat="1" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A124" s="26"/>
@@ -5933,204 +6016,202 @@
       <c r="E124" s="23"/>
       <c r="F124" s="22"/>
       <c r="G124" s="22"/>
-      <c r="H124" s="22"/>
+      <c r="H124" s="47"/>
       <c r="I124" s="24"/>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A125" s="186">
+    <row r="125" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="214">
         <v>1</v>
       </c>
-      <c r="B125" s="179" t="s">
+      <c r="B125" s="159" t="s">
         <v>16</v>
       </c>
-      <c r="C125" s="180"/>
-      <c r="D125" s="180"/>
-      <c r="E125" s="180"/>
-      <c r="F125" s="180"/>
-      <c r="G125" s="180"/>
-      <c r="H125" s="180"/>
-      <c r="I125" s="210"/>
+      <c r="C125" s="160"/>
+      <c r="D125" s="160"/>
+      <c r="E125" s="160"/>
+      <c r="F125" s="160"/>
+      <c r="G125" s="160"/>
+      <c r="H125" s="22"/>
+      <c r="I125" s="171"/>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A126" s="187"/>
-      <c r="B126" s="237" t="s">
+      <c r="A126" s="215"/>
+      <c r="B126" s="175" t="s">
         <v>17</v>
       </c>
-      <c r="C126" s="238"/>
-      <c r="D126" s="238"/>
-      <c r="E126" s="238"/>
-      <c r="F126" s="238"/>
-      <c r="G126" s="238"/>
-      <c r="H126" s="238"/>
-      <c r="I126" s="239"/>
+      <c r="C126" s="176"/>
+      <c r="D126" s="176"/>
+      <c r="E126" s="176"/>
+      <c r="F126" s="176"/>
+      <c r="G126" s="176"/>
+      <c r="H126" s="160"/>
+      <c r="I126" s="177"/>
     </row>
     <row r="127" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="187"/>
-      <c r="B127" s="199" t="s">
+      <c r="A127" s="215"/>
+      <c r="B127" s="167" t="s">
         <v>18</v>
       </c>
-      <c r="C127" s="200"/>
-      <c r="D127" s="200"/>
-      <c r="E127" s="200"/>
-      <c r="F127" s="200"/>
-      <c r="G127" s="200"/>
-      <c r="H127" s="200"/>
-      <c r="I127" s="201"/>
+      <c r="C127" s="168"/>
+      <c r="D127" s="168"/>
+      <c r="E127" s="168"/>
+      <c r="F127" s="168"/>
+      <c r="G127" s="168"/>
+      <c r="H127" s="176"/>
+      <c r="I127" s="169"/>
     </row>
     <row r="128" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="187"/>
-      <c r="B128" s="199" t="s">
+      <c r="A128" s="215"/>
+      <c r="B128" s="167" t="s">
         <v>19</v>
       </c>
-      <c r="C128" s="200"/>
-      <c r="D128" s="200"/>
-      <c r="E128" s="200"/>
-      <c r="F128" s="200"/>
-      <c r="G128" s="200"/>
-      <c r="H128" s="200"/>
-      <c r="I128" s="201"/>
+      <c r="C128" s="168"/>
+      <c r="D128" s="168"/>
+      <c r="E128" s="168"/>
+      <c r="F128" s="168"/>
+      <c r="G128" s="168"/>
+      <c r="H128" s="168"/>
+      <c r="I128" s="169"/>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A129" s="187"/>
-      <c r="B129" s="199" t="s">
+      <c r="A129" s="215"/>
+      <c r="B129" s="224" t="s">
         <v>20</v>
       </c>
-      <c r="C129" s="200"/>
-      <c r="D129" s="200"/>
-      <c r="E129" s="200"/>
-      <c r="F129" s="200"/>
-      <c r="G129" s="200"/>
-      <c r="H129" s="58"/>
+      <c r="C129" s="225"/>
+      <c r="D129" s="225"/>
+      <c r="E129" s="225"/>
+      <c r="F129" s="225"/>
+      <c r="G129" s="225"/>
+      <c r="H129" s="168"/>
       <c r="I129" s="59"/>
     </row>
     <row r="130" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="188"/>
-      <c r="B130" s="202" t="s">
+      <c r="A130" s="216"/>
+      <c r="B130" s="226" t="s">
         <v>21</v>
       </c>
-      <c r="C130" s="203"/>
-      <c r="D130" s="203"/>
-      <c r="E130" s="203"/>
-      <c r="F130" s="203"/>
-      <c r="G130" s="203"/>
-      <c r="H130" s="60"/>
+      <c r="C130" s="227"/>
+      <c r="D130" s="227"/>
+      <c r="E130" s="227"/>
+      <c r="F130" s="227"/>
+      <c r="G130" s="227"/>
+      <c r="H130" s="58"/>
       <c r="I130" s="12"/>
     </row>
     <row r="131" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="176">
+      <c r="A131" s="208">
         <v>2</v>
       </c>
-      <c r="B131" s="179" t="s">
+      <c r="B131" s="159" t="s">
         <v>22</v>
       </c>
-      <c r="C131" s="180"/>
-      <c r="D131" s="180"/>
-      <c r="E131" s="180"/>
-      <c r="F131" s="180"/>
-      <c r="G131" s="180"/>
-      <c r="H131" s="181"/>
-      <c r="I131" s="182"/>
-    </row>
-    <row r="132" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="177"/>
+      <c r="C131" s="160"/>
+      <c r="D131" s="160"/>
+      <c r="E131" s="160"/>
+      <c r="F131" s="160"/>
+      <c r="G131" s="160"/>
+      <c r="H131" s="60"/>
+      <c r="I131" s="162"/>
+    </row>
+    <row r="132" spans="1:9" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="209"/>
       <c r="B132" s="13" t="s">
         <v>23</v>
       </c>
       <c r="C132" s="57" t="s">
         <v>57</v>
       </c>
-      <c r="D132" s="97" t="s">
-        <v>531</v>
-      </c>
-      <c r="E132" s="98" t="s">
-        <v>533</v>
-      </c>
-      <c r="F132" s="98" t="s">
-        <v>534</v>
-      </c>
-      <c r="G132" s="98"/>
-      <c r="H132" s="96" t="s">
+      <c r="D132" s="96" t="s">
+        <v>520</v>
+      </c>
+      <c r="E132" s="97" t="s">
+        <v>522</v>
+      </c>
+      <c r="F132" s="97" t="s">
+        <v>523</v>
+      </c>
+      <c r="G132" s="97"/>
+      <c r="H132" s="161"/>
+      <c r="I132" s="106" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A133" s="210"/>
+      <c r="B133" s="89"/>
+      <c r="C133" s="90" t="s">
+        <v>58</v>
+      </c>
+      <c r="D133" s="98" t="s">
+        <v>521</v>
+      </c>
+      <c r="E133" s="99"/>
+      <c r="F133" s="99"/>
+      <c r="G133" s="99"/>
+      <c r="H133" s="95" t="s">
         <v>25</v>
       </c>
-      <c r="I132" s="107" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="178"/>
-      <c r="B133" s="90"/>
-      <c r="C133" s="91" t="s">
-        <v>58</v>
-      </c>
-      <c r="D133" s="99" t="s">
-        <v>532</v>
-      </c>
-      <c r="E133" s="100"/>
-      <c r="F133" s="100"/>
-      <c r="G133" s="100"/>
-      <c r="H133" s="130" t="s">
+      <c r="I133" s="129" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A134" s="253">
+        <v>3</v>
+      </c>
+      <c r="B134" s="230" t="s">
+        <v>24</v>
+      </c>
+      <c r="C134" s="229" t="s">
+        <v>24</v>
+      </c>
+      <c r="D134" s="229" t="s">
+        <v>24</v>
+      </c>
+      <c r="E134" s="229" t="s">
+        <v>24</v>
+      </c>
+      <c r="F134" s="229" t="s">
+        <v>24</v>
+      </c>
+      <c r="G134" s="229" t="s">
+        <v>24</v>
+      </c>
+      <c r="H134" s="128" t="s">
         <v>27</v>
       </c>
-      <c r="I133" s="131" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A134" s="227">
-        <v>3</v>
-      </c>
-      <c r="B134" s="205" t="s">
-        <v>24</v>
-      </c>
-      <c r="C134" s="180" t="s">
-        <v>24</v>
-      </c>
-      <c r="D134" s="180" t="s">
-        <v>24</v>
-      </c>
-      <c r="E134" s="180" t="s">
-        <v>24</v>
-      </c>
-      <c r="F134" s="180" t="s">
-        <v>24</v>
-      </c>
-      <c r="G134" s="180" t="s">
-        <v>24</v>
-      </c>
-      <c r="H134" s="137" t="s">
+      <c r="I134" s="136" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="254"/>
+      <c r="B135" s="231"/>
+      <c r="C135" s="225"/>
+      <c r="D135" s="225"/>
+      <c r="E135" s="225"/>
+      <c r="F135" s="225"/>
+      <c r="G135" s="225"/>
+      <c r="H135" s="135" t="s">
         <v>29</v>
-      </c>
-      <c r="I134" s="138" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="228"/>
-      <c r="B135" s="206"/>
-      <c r="C135" s="200"/>
-      <c r="D135" s="200"/>
-      <c r="E135" s="200"/>
-      <c r="F135" s="200"/>
-      <c r="G135" s="200"/>
-      <c r="H135" s="132" t="s">
-        <v>59</v>
       </c>
       <c r="I135" s="34" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="136" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="228"/>
-      <c r="B136" s="139" t="s">
+      <c r="A136" s="254"/>
+      <c r="B136" s="137" t="s">
         <v>53</v>
       </c>
-      <c r="C136" s="134" t="s">
+      <c r="C136" s="132" t="s">
         <v>48</v>
       </c>
-      <c r="D136" s="133" t="s">
+      <c r="D136" s="131" t="s">
         <v>49</v>
       </c>
-      <c r="E136" s="133" t="s">
+      <c r="E136" s="131" t="s">
         <v>50</v>
       </c>
       <c r="F136" s="33" t="s">
@@ -6139,511 +6220,508 @@
       <c r="G136" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="H136" s="132" t="s">
-        <v>32</v>
+      <c r="H136" s="130" t="s">
+        <v>59</v>
       </c>
       <c r="I136" s="34" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="137" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A137" s="228"/>
-      <c r="B137" s="140" t="s">
-        <v>378</v>
-      </c>
-      <c r="C137" s="92" t="s">
-        <v>415</v>
-      </c>
-      <c r="D137" s="84" t="s">
-        <v>428</v>
-      </c>
-      <c r="E137" s="84" t="s">
-        <v>441</v>
-      </c>
-      <c r="F137" s="93" t="s">
-        <v>468</v>
-      </c>
-      <c r="G137" s="93" t="s">
-        <v>483</v>
-      </c>
-      <c r="H137" s="132" t="s">
-        <v>56</v>
+      <c r="A137" s="254"/>
+      <c r="B137" s="138" t="s">
+        <v>367</v>
+      </c>
+      <c r="C137" s="91" t="s">
+        <v>404</v>
+      </c>
+      <c r="D137" s="83" t="s">
+        <v>417</v>
+      </c>
+      <c r="E137" s="83" t="s">
+        <v>430</v>
+      </c>
+      <c r="F137" s="92" t="s">
+        <v>457</v>
+      </c>
+      <c r="G137" s="92" t="s">
+        <v>472</v>
+      </c>
+      <c r="H137" s="130" t="s">
+        <v>32</v>
       </c>
       <c r="I137" s="31" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="138" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A138" s="228"/>
-      <c r="B138" s="141" t="s">
-        <v>379</v>
-      </c>
-      <c r="C138" s="103" t="s">
-        <v>416</v>
-      </c>
-      <c r="D138" s="101" t="s">
-        <v>429</v>
-      </c>
-      <c r="E138" s="101" t="s">
-        <v>442</v>
+      <c r="A138" s="254"/>
+      <c r="B138" s="139" t="s">
+        <v>368</v>
+      </c>
+      <c r="C138" s="102" t="s">
+        <v>405</v>
+      </c>
+      <c r="D138" s="100" t="s">
+        <v>418</v>
+      </c>
+      <c r="E138" s="100" t="s">
+        <v>431</v>
       </c>
       <c r="F138" s="33" t="s">
-        <v>469</v>
+        <v>458</v>
       </c>
       <c r="G138" s="33" t="s">
-        <v>484</v>
-      </c>
-      <c r="H138" s="135" t="s">
-        <v>34</v>
+        <v>473</v>
+      </c>
+      <c r="H138" s="130" t="s">
+        <v>56</v>
       </c>
       <c r="I138" s="34" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="139" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A139" s="228"/>
-      <c r="B139" s="141" t="s">
-        <v>380</v>
-      </c>
-      <c r="C139" s="103" t="s">
-        <v>417</v>
-      </c>
-      <c r="D139" s="101" t="s">
-        <v>416</v>
-      </c>
-      <c r="E139" s="101" t="s">
-        <v>443</v>
+      <c r="A139" s="254"/>
+      <c r="B139" s="139" t="s">
+        <v>369</v>
+      </c>
+      <c r="C139" s="102" t="s">
+        <v>406</v>
+      </c>
+      <c r="D139" s="100" t="s">
+        <v>405</v>
+      </c>
+      <c r="E139" s="100" t="s">
+        <v>432</v>
       </c>
       <c r="F139" s="33" t="s">
-        <v>470</v>
+        <v>459</v>
       </c>
       <c r="G139" s="33" t="s">
-        <v>485</v>
-      </c>
-      <c r="H139" s="132" t="s">
-        <v>36</v>
+        <v>474</v>
+      </c>
+      <c r="H139" s="133" t="s">
+        <v>34</v>
       </c>
       <c r="I139" s="31" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="140" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A140" s="228"/>
-      <c r="B140" s="142" t="s">
-        <v>381</v>
-      </c>
-      <c r="C140" s="103" t="s">
-        <v>418</v>
-      </c>
-      <c r="D140" s="101" t="s">
-        <v>430</v>
+      <c r="A140" s="254"/>
+      <c r="B140" s="140" t="s">
+        <v>370</v>
+      </c>
+      <c r="C140" s="102" t="s">
+        <v>407</v>
+      </c>
+      <c r="D140" s="100" t="s">
+        <v>419</v>
       </c>
       <c r="E140" s="33" t="s">
-        <v>456</v>
+        <v>445</v>
       </c>
       <c r="F140" s="33" t="s">
-        <v>471</v>
+        <v>460</v>
       </c>
       <c r="G140" s="33" t="s">
-        <v>486</v>
-      </c>
-      <c r="H140" s="132" t="s">
-        <v>38</v>
+        <v>475</v>
+      </c>
+      <c r="H140" s="130" t="s">
+        <v>36</v>
       </c>
       <c r="I140" s="31" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="141" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A141" s="228"/>
-      <c r="B141" s="142" t="s">
-        <v>382</v>
-      </c>
-      <c r="C141" s="103" t="s">
-        <v>419</v>
-      </c>
-      <c r="D141" s="101" t="s">
-        <v>431</v>
+      <c r="A141" s="254"/>
+      <c r="B141" s="140" t="s">
+        <v>371</v>
+      </c>
+      <c r="C141" s="102" t="s">
+        <v>408</v>
+      </c>
+      <c r="D141" s="100" t="s">
+        <v>420</v>
       </c>
       <c r="E141" s="33" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="F141" s="33" t="s">
-        <v>472</v>
+        <v>461</v>
       </c>
       <c r="G141" s="33" t="s">
-        <v>487</v>
-      </c>
-      <c r="H141" s="132" t="s">
-        <v>68</v>
+        <v>476</v>
+      </c>
+      <c r="H141" s="130" t="s">
+        <v>38</v>
       </c>
       <c r="I141" s="35" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="142" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A142" s="228"/>
-      <c r="B142" s="142" t="s">
-        <v>383</v>
-      </c>
-      <c r="C142" s="103" t="s">
-        <v>415</v>
-      </c>
-      <c r="D142" s="101" t="s">
-        <v>432</v>
+      <c r="A142" s="254"/>
+      <c r="B142" s="140" t="s">
+        <v>372</v>
+      </c>
+      <c r="C142" s="102" t="s">
+        <v>404</v>
+      </c>
+      <c r="D142" s="100" t="s">
+        <v>421</v>
       </c>
       <c r="E142" s="33" t="s">
-        <v>458</v>
+        <v>447</v>
       </c>
       <c r="F142" s="33" t="s">
-        <v>473</v>
+        <v>462</v>
       </c>
       <c r="G142" s="33" t="s">
-        <v>488</v>
-      </c>
-      <c r="H142" s="132" t="s">
-        <v>40</v>
+        <v>477</v>
+      </c>
+      <c r="H142" s="130" t="s">
+        <v>68</v>
       </c>
       <c r="I142" s="31" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="143" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A143" s="228"/>
-      <c r="B143" s="142" t="s">
-        <v>384</v>
-      </c>
-      <c r="C143" s="103" t="s">
-        <v>420</v>
-      </c>
-      <c r="D143" s="101" t="s">
-        <v>433</v>
+      <c r="A143" s="254"/>
+      <c r="B143" s="140" t="s">
+        <v>373</v>
+      </c>
+      <c r="C143" s="102" t="s">
+        <v>409</v>
+      </c>
+      <c r="D143" s="100" t="s">
+        <v>422</v>
       </c>
       <c r="E143" s="33" t="s">
-        <v>459</v>
+        <v>448</v>
       </c>
       <c r="F143" s="33" t="s">
-        <v>474</v>
+        <v>463</v>
       </c>
       <c r="G143" s="33" t="s">
-        <v>489</v>
-      </c>
-      <c r="H143" s="132" t="s">
-        <v>42</v>
+        <v>478</v>
+      </c>
+      <c r="H143" s="130" t="s">
+        <v>40</v>
       </c>
       <c r="I143" s="31" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="144" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A144" s="228"/>
-      <c r="B144" s="142" t="s">
-        <v>385</v>
-      </c>
-      <c r="C144" s="103" t="s">
-        <v>421</v>
-      </c>
-      <c r="D144" s="101" t="s">
-        <v>434</v>
+      <c r="A144" s="254"/>
+      <c r="B144" s="140" t="s">
+        <v>374</v>
+      </c>
+      <c r="C144" s="102" t="s">
+        <v>410</v>
+      </c>
+      <c r="D144" s="100" t="s">
+        <v>423</v>
       </c>
       <c r="E144" s="33" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="F144" s="33" t="s">
-        <v>475</v>
+        <v>464</v>
       </c>
       <c r="G144" s="33" t="s">
-        <v>490</v>
-      </c>
-      <c r="H144" s="132" t="s">
-        <v>44</v>
+        <v>479</v>
+      </c>
+      <c r="H144" s="130" t="s">
+        <v>42</v>
       </c>
       <c r="I144" s="31" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="145" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="228"/>
-      <c r="B145" s="142" t="s">
-        <v>386</v>
-      </c>
-      <c r="C145" s="103" t="s">
-        <v>422</v>
-      </c>
-      <c r="D145" s="101" t="s">
-        <v>419</v>
+      <c r="A145" s="254"/>
+      <c r="B145" s="140" t="s">
+        <v>375</v>
+      </c>
+      <c r="C145" s="102" t="s">
+        <v>411</v>
+      </c>
+      <c r="D145" s="100" t="s">
+        <v>408</v>
       </c>
       <c r="E145" s="33" t="s">
-        <v>461</v>
+        <v>450</v>
       </c>
       <c r="F145" s="33" t="s">
-        <v>476</v>
+        <v>465</v>
       </c>
       <c r="G145" s="33" t="s">
-        <v>491</v>
-      </c>
-      <c r="H145" s="132" t="s">
+        <v>480</v>
+      </c>
+      <c r="H145" s="130" t="s">
+        <v>44</v>
+      </c>
+      <c r="I145" s="141" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="254"/>
+      <c r="B146" s="140" t="s">
+        <v>376</v>
+      </c>
+      <c r="C146" s="102" t="s">
+        <v>406</v>
+      </c>
+      <c r="D146" s="100" t="s">
+        <v>424</v>
+      </c>
+      <c r="E146" s="33" t="s">
+        <v>451</v>
+      </c>
+      <c r="F146" s="33" t="s">
+        <v>466</v>
+      </c>
+      <c r="G146" s="33" t="s">
+        <v>481</v>
+      </c>
+      <c r="H146" s="130" t="s">
         <v>46</v>
       </c>
-      <c r="I145" s="143" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="228"/>
-      <c r="B146" s="142" t="s">
-        <v>387</v>
-      </c>
-      <c r="C146" s="103" t="s">
-        <v>417</v>
-      </c>
-      <c r="D146" s="101" t="s">
-        <v>435</v>
-      </c>
-      <c r="E146" s="33" t="s">
-        <v>462</v>
-      </c>
-      <c r="F146" s="33" t="s">
-        <v>477</v>
-      </c>
-      <c r="G146" s="33" t="s">
-        <v>492</v>
-      </c>
-      <c r="H146" s="101" t="s">
-        <v>517</v>
-      </c>
-      <c r="I146" s="105" t="s">
-        <v>518</v>
+      <c r="I146" s="104" t="s">
+        <v>507</v>
       </c>
     </row>
     <row r="147" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A147" s="228"/>
-      <c r="B147" s="142" t="s">
-        <v>388</v>
-      </c>
-      <c r="C147" s="103" t="s">
-        <v>423</v>
-      </c>
-      <c r="D147" s="101" t="s">
-        <v>436</v>
+      <c r="A147" s="254"/>
+      <c r="B147" s="140" t="s">
+        <v>377</v>
+      </c>
+      <c r="C147" s="102" t="s">
+        <v>412</v>
+      </c>
+      <c r="D147" s="100" t="s">
+        <v>425</v>
       </c>
       <c r="E147" s="33" t="s">
-        <v>463</v>
+        <v>452</v>
       </c>
       <c r="F147" s="33" t="s">
-        <v>478</v>
+        <v>467</v>
       </c>
       <c r="G147" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="H147" s="101" t="s">
+      <c r="H147" s="100" t="s">
+        <v>506</v>
+      </c>
+      <c r="I147" s="104" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A148" s="254"/>
+      <c r="B148" s="142" t="s">
+        <v>433</v>
+      </c>
+      <c r="C148" s="102" t="s">
+        <v>413</v>
+      </c>
+      <c r="D148" s="100" t="s">
+        <v>426</v>
+      </c>
+      <c r="E148" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="F148" s="33" t="s">
+        <v>468</v>
+      </c>
+      <c r="G148" s="33" t="s">
+        <v>482</v>
+      </c>
+      <c r="H148" s="100" t="s">
+        <v>508</v>
+      </c>
+      <c r="I148" s="104" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A149" s="254"/>
+      <c r="B149" s="142" t="s">
+        <v>446</v>
+      </c>
+      <c r="C149" s="102" t="s">
+        <v>414</v>
+      </c>
+      <c r="D149" s="100" t="s">
+        <v>427</v>
+      </c>
+      <c r="E149" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="F149" s="33" t="s">
+        <v>469</v>
+      </c>
+      <c r="G149" s="33" t="s">
+        <v>483</v>
+      </c>
+      <c r="H149" s="100" t="s">
+        <v>510</v>
+      </c>
+      <c r="I149" s="104" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A150" s="254"/>
+      <c r="B150" s="142" t="s">
+        <v>487</v>
+      </c>
+      <c r="C150" s="102" t="s">
+        <v>415</v>
+      </c>
+      <c r="D150" s="100" t="s">
+        <v>428</v>
+      </c>
+      <c r="E150" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="F150" s="33" t="s">
+        <v>470</v>
+      </c>
+      <c r="G150" s="33" t="s">
+        <v>484</v>
+      </c>
+      <c r="H150" s="100" t="s">
+        <v>512</v>
+      </c>
+      <c r="I150" s="104" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="254"/>
+      <c r="B151" s="142" t="s">
+        <v>488</v>
+      </c>
+      <c r="C151" s="32" t="s">
+        <v>416</v>
+      </c>
+      <c r="D151" s="103" t="s">
+        <v>429</v>
+      </c>
+      <c r="E151" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="F151" s="33" t="s">
+        <v>471</v>
+      </c>
+      <c r="G151" s="33" t="s">
+        <v>485</v>
+      </c>
+      <c r="H151" s="100" t="s">
+        <v>514</v>
+      </c>
+      <c r="I151" s="104" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A152" s="254"/>
+      <c r="B152" s="142" t="s">
+        <v>489</v>
+      </c>
+      <c r="C152" s="33" t="s">
+        <v>490</v>
+      </c>
+      <c r="D152" s="33" t="s">
+        <v>491</v>
+      </c>
+      <c r="E152" s="33" t="s">
+        <v>492</v>
+      </c>
+      <c r="F152" s="33" t="s">
+        <v>467</v>
+      </c>
+      <c r="G152" s="33" t="s">
+        <v>486</v>
+      </c>
+      <c r="H152" s="100" t="s">
+        <v>516</v>
+      </c>
+      <c r="I152" s="105" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A153" s="254"/>
+      <c r="B153" s="143" t="s">
+        <v>494</v>
+      </c>
+      <c r="C153" s="134" t="s">
+        <v>495</v>
+      </c>
+      <c r="D153" s="100" t="s">
         <v>519</v>
       </c>
-      <c r="I147" s="105" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A148" s="228"/>
-      <c r="B148" s="144" t="s">
-        <v>444</v>
-      </c>
-      <c r="C148" s="103" t="s">
-        <v>424</v>
-      </c>
-      <c r="D148" s="101" t="s">
-        <v>437</v>
-      </c>
-      <c r="E148" s="33" t="s">
-        <v>464</v>
-      </c>
-      <c r="F148" s="33" t="s">
-        <v>479</v>
-      </c>
-      <c r="G148" s="33" t="s">
+      <c r="E153" s="100" t="s">
+        <v>518</v>
+      </c>
+      <c r="F153" s="92" t="s">
+        <v>552</v>
+      </c>
+      <c r="G153" s="92" t="s">
+        <v>553</v>
+      </c>
+      <c r="H153" s="101" t="s">
         <v>493</v>
       </c>
-      <c r="H148" s="101" t="s">
-        <v>521</v>
-      </c>
-      <c r="I148" s="105" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A149" s="228"/>
-      <c r="B149" s="144" t="s">
-        <v>457</v>
-      </c>
-      <c r="C149" s="103" t="s">
-        <v>425</v>
-      </c>
-      <c r="D149" s="101" t="s">
-        <v>438</v>
-      </c>
-      <c r="E149" s="33" t="s">
-        <v>465</v>
-      </c>
-      <c r="F149" s="33" t="s">
-        <v>480</v>
-      </c>
-      <c r="G149" s="33" t="s">
-        <v>494</v>
-      </c>
-      <c r="H149" s="101" t="s">
-        <v>523</v>
-      </c>
-      <c r="I149" s="105" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A150" s="228"/>
-      <c r="B150" s="144" t="s">
-        <v>498</v>
-      </c>
-      <c r="C150" s="103" t="s">
-        <v>426</v>
-      </c>
-      <c r="D150" s="101" t="s">
-        <v>439</v>
-      </c>
-      <c r="E150" s="33" t="s">
-        <v>466</v>
-      </c>
-      <c r="F150" s="33" t="s">
-        <v>481</v>
-      </c>
-      <c r="G150" s="33" t="s">
-        <v>495</v>
-      </c>
-      <c r="H150" s="101" t="s">
-        <v>525</v>
-      </c>
-      <c r="I150" s="105" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="228"/>
-      <c r="B151" s="144" t="s">
-        <v>499</v>
-      </c>
-      <c r="C151" s="32" t="s">
-        <v>427</v>
-      </c>
-      <c r="D151" s="104" t="s">
-        <v>440</v>
-      </c>
-      <c r="E151" s="33" t="s">
-        <v>467</v>
-      </c>
-      <c r="F151" s="33" t="s">
-        <v>482</v>
-      </c>
-      <c r="G151" s="33" t="s">
-        <v>496</v>
-      </c>
-      <c r="H151" s="101" t="s">
-        <v>527</v>
-      </c>
-      <c r="I151" s="105" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A152" s="228"/>
-      <c r="B152" s="144" t="s">
-        <v>500</v>
-      </c>
-      <c r="C152" s="33" t="s">
-        <v>501</v>
-      </c>
-      <c r="D152" s="33" t="s">
-        <v>502</v>
-      </c>
-      <c r="E152" s="33" t="s">
-        <v>503</v>
-      </c>
-      <c r="F152" s="33" t="s">
-        <v>478</v>
-      </c>
-      <c r="G152" s="33" t="s">
-        <v>497</v>
-      </c>
-      <c r="H152" s="102" t="s">
-        <v>504</v>
-      </c>
-      <c r="I152" s="106" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A153" s="228"/>
-      <c r="B153" s="145" t="s">
-        <v>505</v>
-      </c>
-      <c r="C153" s="136" t="s">
-        <v>506</v>
-      </c>
-      <c r="D153" s="101" t="s">
-        <v>530</v>
-      </c>
-      <c r="E153" s="101" t="s">
-        <v>529</v>
-      </c>
-      <c r="F153" s="93" t="s">
-        <v>563</v>
-      </c>
-      <c r="G153" s="93" t="s">
-        <v>564</v>
-      </c>
-      <c r="H153" s="93" t="s">
-        <v>567</v>
-      </c>
-      <c r="I153" s="106" t="s">
-        <v>565</v>
+      <c r="I153" s="105" t="s">
+        <v>554</v>
       </c>
     </row>
     <row r="154" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A154" s="229"/>
-      <c r="B154" s="146" t="s">
-        <v>568</v>
-      </c>
-      <c r="C154" s="94"/>
-      <c r="D154" s="94"/>
-      <c r="E154" s="94"/>
-      <c r="F154" s="94"/>
-      <c r="G154" s="94"/>
-      <c r="H154" s="94"/>
-      <c r="I154" s="95"/>
+      <c r="A154" s="255"/>
+      <c r="B154" s="144" t="s">
+        <v>557</v>
+      </c>
+      <c r="C154" s="93"/>
+      <c r="D154" s="93"/>
+      <c r="E154" s="93"/>
+      <c r="F154" s="93"/>
+      <c r="G154" s="93"/>
+      <c r="H154" s="92" t="s">
+        <v>556</v>
+      </c>
+      <c r="I154" s="94"/>
+    </row>
+    <row r="155" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H155" s="93"/>
     </row>
     <row r="191" spans="5:5" ht="15" x14ac:dyDescent="0.25">
       <c r="E191"/>
     </row>
   </sheetData>
-  <mergeCells count="157">
+  <mergeCells count="135">
     <mergeCell ref="A134:A154"/>
     <mergeCell ref="G84:G102"/>
     <mergeCell ref="G61:I61"/>
-    <mergeCell ref="G103:I103"/>
     <mergeCell ref="B61:D61"/>
     <mergeCell ref="B62:D62"/>
     <mergeCell ref="G63:I63"/>
     <mergeCell ref="B81:D81"/>
     <mergeCell ref="B82:D82"/>
-    <mergeCell ref="F79:H79"/>
-    <mergeCell ref="F80:H80"/>
     <mergeCell ref="G62:I62"/>
-    <mergeCell ref="B126:I126"/>
-    <mergeCell ref="B127:I127"/>
     <mergeCell ref="D110:E110"/>
     <mergeCell ref="B116:C116"/>
-    <mergeCell ref="H98:I98"/>
     <mergeCell ref="B94:C94"/>
     <mergeCell ref="E84:E105"/>
-    <mergeCell ref="H74:I74"/>
-    <mergeCell ref="H75:I75"/>
     <mergeCell ref="E65:E82"/>
     <mergeCell ref="F77:G77"/>
     <mergeCell ref="C105:D105"/>
@@ -6667,6 +6745,8 @@
     <mergeCell ref="F16:G16"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="H19:I19"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F18:G18"/>
     <mergeCell ref="A25:A42"/>
     <mergeCell ref="A44:A63"/>
     <mergeCell ref="C15:D15"/>
@@ -6696,59 +6776,39 @@
     <mergeCell ref="B57:C57"/>
     <mergeCell ref="H52:I52"/>
     <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B125:I125"/>
     <mergeCell ref="D116:E116"/>
     <mergeCell ref="C114:D114"/>
     <mergeCell ref="C115:D115"/>
     <mergeCell ref="B97:C97"/>
     <mergeCell ref="B98:C98"/>
-    <mergeCell ref="B123:C123"/>
     <mergeCell ref="B102:D102"/>
     <mergeCell ref="B103:D103"/>
     <mergeCell ref="B104:D104"/>
-    <mergeCell ref="G104:I104"/>
-    <mergeCell ref="G105:I105"/>
-    <mergeCell ref="B120:D120"/>
-    <mergeCell ref="B121:D121"/>
-    <mergeCell ref="B122:D122"/>
     <mergeCell ref="C76:D76"/>
     <mergeCell ref="H53:I53"/>
     <mergeCell ref="H56:I56"/>
     <mergeCell ref="H57:I57"/>
-    <mergeCell ref="H58:I58"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="H101:I101"/>
-    <mergeCell ref="H102:I102"/>
-    <mergeCell ref="C113:D113"/>
-    <mergeCell ref="H95:I95"/>
-    <mergeCell ref="H100:I100"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="F78:G78"/>
-    <mergeCell ref="H99:I99"/>
-    <mergeCell ref="H96:I96"/>
-    <mergeCell ref="C99:D99"/>
-    <mergeCell ref="H77:I77"/>
-    <mergeCell ref="C100:D100"/>
-    <mergeCell ref="B130:G130"/>
-    <mergeCell ref="D118:E118"/>
-    <mergeCell ref="D123:E123"/>
-    <mergeCell ref="D111:E111"/>
     <mergeCell ref="G134:G135"/>
     <mergeCell ref="B134:B135"/>
     <mergeCell ref="D134:D135"/>
     <mergeCell ref="E134:E135"/>
     <mergeCell ref="F134:F135"/>
     <mergeCell ref="C134:C135"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="H58:I58"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="C113:D113"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="F78:G78"/>
+    <mergeCell ref="C99:D99"/>
+    <mergeCell ref="C100:D100"/>
+    <mergeCell ref="B123:C123"/>
+    <mergeCell ref="B120:D120"/>
+    <mergeCell ref="B121:D121"/>
+    <mergeCell ref="B122:D122"/>
     <mergeCell ref="A131:A133"/>
-    <mergeCell ref="B131:I131"/>
     <mergeCell ref="A65:A82"/>
     <mergeCell ref="A125:A130"/>
-    <mergeCell ref="H97:I97"/>
     <mergeCell ref="A107:A123"/>
     <mergeCell ref="C74:D74"/>
     <mergeCell ref="D117:E117"/>
@@ -6756,16 +6816,20 @@
     <mergeCell ref="B117:C117"/>
     <mergeCell ref="F76:G76"/>
     <mergeCell ref="F75:G75"/>
-    <mergeCell ref="H76:I76"/>
     <mergeCell ref="A84:A104"/>
     <mergeCell ref="B79:C79"/>
     <mergeCell ref="B80:C80"/>
     <mergeCell ref="B118:C118"/>
     <mergeCell ref="B119:C119"/>
-    <mergeCell ref="B128:I128"/>
     <mergeCell ref="B129:G129"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="F40:H40"/>
+    <mergeCell ref="B130:G130"/>
+    <mergeCell ref="D118:E118"/>
+    <mergeCell ref="D123:E123"/>
+    <mergeCell ref="D111:E111"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="F36:G36"/>
     <mergeCell ref="F41:H41"/>
     <mergeCell ref="F42:H42"/>
     <mergeCell ref="H38:I38"/>
@@ -6776,10 +6840,10 @@
     <mergeCell ref="F39:G39"/>
     <mergeCell ref="H39:I39"/>
     <mergeCell ref="H37:I37"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="F40:H40"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="55" orientation="landscape" r:id="rId1"/>
@@ -6801,32 +6865,32 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>563</v>
+        <v>552</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>564</v>
+        <v>553</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>566</v>
+        <v>555</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>565</v>
+        <v>554</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>567</v>
+        <v>556</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>568</v>
+        <v>557</v>
       </c>
     </row>
   </sheetData>
